--- a/All136Data/Name_list.xlsx
+++ b/All136Data/Name_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
   <si>
     <t>Social Security Satisfied</t>
   </si>
@@ -100,66 +100,18 @@
     <t xml:space="preserve">Savings deposit per capita </t>
   </si>
   <si>
-    <t xml:space="preserve">Satisfication rate with health status </t>
-  </si>
-  <si>
-    <t>TEOG Avg Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of higher education graduates </t>
-  </si>
-  <si>
-    <t>PM10 values</t>
-  </si>
-  <si>
-    <t>Forest area per km2</t>
-  </si>
-  <si>
-    <t>Murder per million</t>
-  </si>
-  <si>
-    <t>membership_association</t>
-  </si>
-  <si>
-    <t>internet_sub</t>
-  </si>
-  <si>
-    <t>public_transport_S</t>
-  </si>
-  <si>
-    <t>social_relation_S</t>
-  </si>
-  <si>
-    <t>social_life_S</t>
-  </si>
-  <si>
-    <t>Level of Happiness</t>
-  </si>
-  <si>
     <t>Employment rate (%)</t>
   </si>
   <si>
     <t>Unemployment rate (%)</t>
   </si>
   <si>
-    <t xml:space="preserve">Applications per doctor </t>
-  </si>
-  <si>
     <t>Average daily earnings (TRY)</t>
   </si>
   <si>
-    <t>Waste services rate</t>
-  </si>
-  <si>
-    <t>Noise problems</t>
-  </si>
-  <si>
     <t>Problems_dwellings (%)</t>
   </si>
   <si>
-    <t>Satisfaction rate with municipal cleaning services (%)</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -175,21 +127,6 @@
     <t>Toilet presence percentage in dwellings (%)</t>
   </si>
   <si>
-    <t>Traffic accident per 1000</t>
-  </si>
-  <si>
-    <t>Walking_alone safety</t>
-  </si>
-  <si>
-    <t>Public_safety_Satisfaction</t>
-  </si>
-  <si>
-    <t>Voting turnout</t>
-  </si>
-  <si>
-    <t>Membership_politic</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
@@ -452,6 +389,37 @@
   </si>
   <si>
     <t xml:space="preserve">Percentage of households declaring to fail on meeting basic needs (%) </t>
+  </si>
+  <si>
+    <t>Infant mortality rate (‰)</t>
+  </si>
+  <si>
+    <t>Life expectancy at birth (Years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of applications per doctor </t>
+  </si>
+  <si>
+    <t>Satisfication rate with health status (%)</t>
+  </si>
+  <si>
+    <t>Satisfication rate with public health services (%)</t>
+  </si>
+  <si>
+    <t>Net schooling ratio of pre-primary education between the ages of 3 and 5 (%)</t>
+  </si>
+  <si>
+    <t>Average point of placement basic scores of the system for Transition to Secondary Education from Basic Education
+(points)</t>
+  </si>
+  <si>
+    <t>Percentage of higher education graduates (%)</t>
+  </si>
+  <si>
+    <t>Satisfaction rate with public education services (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average points of the Transition to Higher Education Examination (points) </t>
   </si>
 </sst>
 </file>
@@ -518,7 +486,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,278 +773,279 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="73.140625" customWidth="1"/>
+    <col min="3" max="3" width="87.42578125" customWidth="1"/>
     <col min="4" max="4" width="120" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="86" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BI1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BO1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BP1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BR1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BS1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BT1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BU1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BV1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BW1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BX1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BY1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CA1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CB1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CC1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CD1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CE1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="CF1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="CG1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CH1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BN1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>133</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>134</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>135</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>136</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>137</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>138</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>139</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>140</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:86" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1090,251 +1061,251 @@
       <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>63.4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>73.239999999999995</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>85.97</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>58.26</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>88.58</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>64.489999999999995</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>62.03</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>85.36</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>71.75</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>84.24</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>78.17</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>56.45</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <v>57.51</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <v>70.739999999999995</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <v>60.64</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="4">
         <v>76.48</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="4">
         <v>76.67</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="4">
         <v>75.33</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="4">
         <v>49.31</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="4">
         <v>72.319999999999993</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="4">
         <v>49.45</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="4">
         <v>78.36</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="4">
         <v>63.81</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="4">
         <v>68.88</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="4">
         <v>62.68</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="4">
         <v>50.23</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="4">
         <v>72.38</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="4">
         <v>84.21</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="4">
         <v>83.93</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="4">
         <v>57.69</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="4">
         <v>61.76</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="4">
         <v>83.38</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="4">
         <v>70.849999999999994</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="4">
         <v>69.33</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="4">
         <v>66.209999999999994</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="4">
         <v>69.13</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="4">
         <v>66.13</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="4">
         <v>70.08</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="4">
         <v>76.27</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="4">
         <v>80.45</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="4">
         <v>67.349999999999994</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="4">
         <v>80.150000000000006</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="4">
         <v>81.99</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="4">
         <v>69.2</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="4">
         <v>87.25</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="4">
         <v>79.760000000000005</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="4">
         <v>65.69</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="4">
         <v>67.66</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="4">
         <v>44.91</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="4">
         <v>72.64</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="4">
         <v>77.569999999999993</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="4">
         <v>66.41</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="4">
         <v>86.38</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="4">
         <v>86.15</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="4">
         <v>81.599999999999994</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="4">
         <v>47.24</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="4">
         <v>75.94</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="4">
         <v>70.349999999999994</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="4">
         <v>75.37</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="4">
         <v>77.47</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="4">
         <v>75.95</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="4">
         <v>56.11</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="4">
         <v>61.05</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="4">
         <v>89.49</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" s="4">
         <v>58.28</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" s="4">
         <v>71.72</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" s="4">
         <v>61.54</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="4">
         <v>81.790000000000006</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" s="4">
         <v>63.2</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" s="4">
         <v>81.84</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="4">
         <v>79.33</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" s="4">
         <v>57.11</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" s="4">
         <v>34.76</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="4">
         <v>67.63</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" s="4">
         <v>68.88</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" s="4">
         <v>69.650000000000006</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" s="4">
         <v>67.569999999999993</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" s="4">
         <v>66.739999999999995</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" s="4">
         <v>68.03</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" s="4">
         <v>66.34</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" s="4">
         <v>58.61</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1350,247 +1321,247 @@
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>12.23</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>6.55</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>3.23</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>12.99</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>3.96</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>13.23</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>14.26</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>5.53</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>9</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>5.73</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>5.93</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>9.92</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <v>11.62</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>6</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>10.62</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>10.23</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>5.21</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="4">
         <v>5.32</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="4">
         <v>4.54</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="4">
         <v>7.7</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="4">
         <v>8.99</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="4">
         <v>5.73</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="4">
         <v>10.97</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="4">
         <v>7.81</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="4">
         <v>7.24</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="4">
         <v>7.62</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="4">
         <v>5.18</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="4">
         <v>4.5199999999999996</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="4">
         <v>4.03</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="4">
         <v>13.45</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="4">
         <v>10.16</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="4">
         <v>3.79</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="4">
         <v>9.51</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="4">
         <v>12.98</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="4">
         <v>11.7</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="4">
         <v>8.39</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="4">
         <v>3.81</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="4">
         <v>10.39</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="4">
         <v>7.34</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="4">
         <v>3.81</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="4">
         <v>10.46</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="4">
         <v>6.49</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="4">
         <v>8.08</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="4">
         <v>2.73</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="4">
         <v>4.24</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="4">
         <v>9.34</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="4">
         <v>10</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="4">
         <v>10.56</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="4">
         <v>5.82</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="4">
         <v>5.31</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="4">
         <v>7.99</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="4">
         <v>3.99</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="4">
         <v>3.07</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="4">
         <v>5.33</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="4">
         <v>3.61</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="4">
         <v>4.01</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="4">
         <v>9.36</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="4">
         <v>7.42</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="4">
         <v>7.31</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="4">
         <v>10.24</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="4">
         <v>15.96</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="4">
         <v>6.39</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="4">
         <v>2.8</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="4">
         <v>10.78</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" s="4">
         <v>8.66</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="4">
         <v>4.3099999999999996</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" s="4">
         <v>5.09</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" s="4">
         <v>5.55</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" s="4">
         <v>4.42</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" s="4">
         <v>11.14</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" s="4">
         <v>8.09</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" s="4">
         <v>7.23</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" s="4">
         <v>7.85</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" s="4">
         <v>6.61</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" s="4">
         <v>10.44</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" s="4">
         <v>6.61</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" s="4">
         <v>4.45</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" s="4">
         <v>7.8</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" s="4">
         <v>20.99</v>
       </c>
     </row>
@@ -2894,7 +2865,7 @@
         <v>45.67</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:86" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3154,7 +3125,7 @@
         <v>23.96</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:86" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3414,7 +3385,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:86" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3674,7 +3645,7 @@
         <v>18.09</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:86" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3934,7 +3905,7 @@
         <v>63.36</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:86" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4194,7 +4165,7 @@
         <v>23.92</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:86" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4454,7 +4425,7 @@
         <v>69.569999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:86" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -4714,7 +4685,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:86" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4974,7 +4945,7 @@
         <v>76.52</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -5234,7 +5205,7 @@
         <v>23.48</v>
       </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:86" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -5494,7 +5465,7 @@
         <v>62.8</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:86" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5756,1567 +5727,1567 @@
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="F20" s="4">
         <v>1.22</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>0.93</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="4">
         <v>1.36</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>0.84</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>1.4</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>1.57</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>1.38</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>1.62</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>1.45</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="4">
         <v>1.55</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <v>1.53</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="4">
         <v>0.91</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="4">
         <v>1.47</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="4">
         <v>1.54</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="4">
         <v>1.36</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="4">
         <v>1.54</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="4">
         <v>1.59</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="4">
         <v>1.46</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="4">
         <v>1.39</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="4">
         <v>0.91</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="4">
         <v>1.53</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="4">
         <v>1.35</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="4">
         <v>1.38</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="4">
         <v>1.56</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="4">
         <v>0.99</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="4">
         <v>1.57</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="4">
         <v>1.39</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="4">
         <v>0.83</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="4">
         <v>1.52</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="4">
         <v>1.3</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" s="4">
         <v>1.31</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" s="4">
         <v>1.47</v>
       </c>
-      <c r="AO20">
+      <c r="AO20" s="4">
         <v>1.03</v>
       </c>
-      <c r="AP20">
+      <c r="AP20" s="4">
         <v>1.48</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ20" s="4">
         <v>1.35</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" s="4">
         <v>1.51</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" s="4">
         <v>1.53</v>
       </c>
-      <c r="AT20">
+      <c r="AT20" s="4">
         <v>1.3</v>
       </c>
-      <c r="AU20">
+      <c r="AU20" s="4">
         <v>1.37</v>
       </c>
-      <c r="AV20">
+      <c r="AV20" s="4">
         <v>1.42</v>
       </c>
-      <c r="AW20">
+      <c r="AW20" s="4">
         <v>1.32</v>
       </c>
-      <c r="AX20">
+      <c r="AX20" s="4">
         <v>1.36</v>
       </c>
-      <c r="AY20">
+      <c r="AY20" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ20" s="4">
         <v>0.77</v>
       </c>
-      <c r="BA20">
+      <c r="BA20" s="4">
         <v>1.38</v>
       </c>
-      <c r="BB20">
+      <c r="BB20" s="4">
         <v>0.82</v>
       </c>
-      <c r="BC20">
+      <c r="BC20" s="4">
         <v>1.47</v>
       </c>
-      <c r="BD20">
+      <c r="BD20" s="4">
         <v>1.31</v>
       </c>
-      <c r="BE20">
+      <c r="BE20" s="4">
         <v>1.37</v>
       </c>
-      <c r="BF20">
+      <c r="BF20" s="4">
         <v>1.56</v>
       </c>
-      <c r="BG20">
+      <c r="BG20" s="4">
         <v>1.68</v>
       </c>
-      <c r="BH20">
+      <c r="BH20" s="4">
         <v>1.38</v>
       </c>
-      <c r="BI20">
+      <c r="BI20" s="4">
         <v>0.94</v>
       </c>
-      <c r="BJ20">
+      <c r="BJ20" s="4">
         <v>1.62</v>
       </c>
-      <c r="BK20">
+      <c r="BK20" s="4">
         <v>1.39</v>
       </c>
-      <c r="BL20">
+      <c r="BL20" s="4">
         <v>1.4</v>
       </c>
-      <c r="BM20">
+      <c r="BM20" s="4">
         <v>1.37</v>
       </c>
-      <c r="BN20">
+      <c r="BN20" s="4">
         <v>1.46</v>
       </c>
-      <c r="BO20">
+      <c r="BO20" s="4">
         <v>1.54</v>
       </c>
-      <c r="BP20">
+      <c r="BP20" s="4">
         <v>0.83</v>
       </c>
-      <c r="BQ20">
+      <c r="BQ20" s="4">
         <v>1.43</v>
       </c>
-      <c r="BR20">
+      <c r="BR20" s="4">
         <v>0.86</v>
       </c>
-      <c r="BS20">
+      <c r="BS20" s="4">
         <v>1.47</v>
       </c>
-      <c r="BT20">
+      <c r="BT20" s="4">
         <v>1.45</v>
       </c>
-      <c r="BU20">
+      <c r="BU20" s="4">
         <v>1.32</v>
       </c>
-      <c r="BV20">
+      <c r="BV20" s="4">
         <v>1.21</v>
       </c>
-      <c r="BW20">
+      <c r="BW20" s="4">
         <v>1.38</v>
       </c>
-      <c r="BX20">
+      <c r="BX20" s="4">
         <v>1.49</v>
       </c>
-      <c r="BY20">
+      <c r="BY20" s="4">
         <v>0.84</v>
       </c>
-      <c r="BZ20">
+      <c r="BZ20" s="4">
         <v>0.75</v>
       </c>
-      <c r="CA20">
+      <c r="CA20" s="4">
         <v>1.53</v>
       </c>
-      <c r="CB20">
+      <c r="CB20" s="4">
         <v>0.99</v>
       </c>
-      <c r="CC20">
+      <c r="CC20" s="4">
         <v>1.05</v>
       </c>
-      <c r="CD20">
+      <c r="CD20" s="4">
         <v>1.53</v>
       </c>
-      <c r="CE20">
+      <c r="CE20" s="4">
         <v>1.54</v>
       </c>
-      <c r="CF20">
+      <c r="CF20" s="4">
         <v>1.1399999999999999</v>
       </c>
-      <c r="CG20">
+      <c r="CG20" s="4">
         <v>1.05</v>
       </c>
-      <c r="CH20">
+      <c r="CH20" s="4">
         <v>1.36</v>
       </c>
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4">
         <v>86.34</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>77.069999999999993</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>90.2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>64.06</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>95.03</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>98.68</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>96.65</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>94.24</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="4">
         <v>78.59</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="4">
         <v>88.64</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
         <v>97.29</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="4">
         <v>87.94</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="4">
         <v>88.39</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="4">
         <v>99.92</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="4">
         <v>86.46</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="4">
         <v>96.14</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="4">
         <v>86.7</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="4">
         <v>93.7</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="4">
         <v>92.02</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="4">
         <v>88.49</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="4">
         <v>86.38</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="4">
         <v>82.07</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="4">
         <v>89.48</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="4">
         <v>89.04</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="4">
         <v>83.13</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="4">
         <v>95.23</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="4">
         <v>87.14</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="4">
         <v>96.21</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="4">
         <v>88.69</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="4">
         <v>97.38</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="4">
         <v>85.82</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="4">
         <v>94.64</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="4">
         <v>87.44</v>
       </c>
-      <c r="AM21">
+      <c r="AM21" s="4">
         <v>99.28</v>
       </c>
-      <c r="AN21">
+      <c r="AN21" s="4">
         <v>94.35</v>
       </c>
-      <c r="AO21">
+      <c r="AO21" s="4">
         <v>56.21</v>
       </c>
-      <c r="AP21">
+      <c r="AP21" s="4">
         <v>99.31</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" s="4">
         <v>94.48</v>
       </c>
-      <c r="AR21">
+      <c r="AR21" s="4">
         <v>85.71</v>
       </c>
-      <c r="AS21">
+      <c r="AS21" s="4">
         <v>90.04</v>
       </c>
-      <c r="AT21">
+      <c r="AT21" s="4">
         <v>99.59</v>
       </c>
-      <c r="AU21">
+      <c r="AU21" s="4">
         <v>92.12</v>
       </c>
-      <c r="AV21">
+      <c r="AV21" s="4">
         <v>97.79</v>
       </c>
-      <c r="AW21">
+      <c r="AW21" s="4">
         <v>90.25</v>
       </c>
-      <c r="AX21">
+      <c r="AX21" s="4">
         <v>78.739999999999995</v>
       </c>
-      <c r="AY21">
+      <c r="AY21" s="4">
         <v>79.78</v>
       </c>
-      <c r="AZ21">
+      <c r="AZ21" s="4">
         <v>57.96</v>
       </c>
-      <c r="BA21">
+      <c r="BA21" s="4">
         <v>89.53</v>
       </c>
-      <c r="BB21">
+      <c r="BB21" s="4">
         <v>65.56</v>
       </c>
-      <c r="BC21">
+      <c r="BC21" s="4">
         <v>89.68</v>
       </c>
-      <c r="BD21">
+      <c r="BD21" s="4">
         <v>81.69</v>
       </c>
-      <c r="BE21">
+      <c r="BE21" s="4">
         <v>99.19</v>
       </c>
-      <c r="BF21">
+      <c r="BF21" s="4">
         <v>97.92</v>
       </c>
-      <c r="BG21">
+      <c r="BG21" s="4">
         <v>99.45</v>
       </c>
-      <c r="BH21">
+      <c r="BH21" s="4">
         <v>99.44</v>
       </c>
-      <c r="BI21">
+      <c r="BI21" s="4">
         <v>88.12</v>
       </c>
-      <c r="BJ21">
+      <c r="BJ21" s="4">
         <v>99.14</v>
       </c>
-      <c r="BK21">
+      <c r="BK21" s="4">
         <v>93.12</v>
       </c>
-      <c r="BL21">
+      <c r="BL21" s="4">
         <v>93.72</v>
       </c>
-      <c r="BM21">
+      <c r="BM21" s="4">
         <v>95.24</v>
       </c>
-      <c r="BN21">
+      <c r="BN21" s="4">
         <v>94.84</v>
       </c>
-      <c r="BO21">
+      <c r="BO21" s="4">
         <v>86.98</v>
       </c>
-      <c r="BP21">
+      <c r="BP21" s="4">
         <v>64.45</v>
       </c>
-      <c r="BQ21">
+      <c r="BQ21" s="4">
         <v>91.23</v>
       </c>
-      <c r="BR21">
+      <c r="BR21" s="4">
         <v>82.26</v>
       </c>
-      <c r="BS21">
+      <c r="BS21" s="4">
         <v>85.17</v>
       </c>
-      <c r="BT21">
+      <c r="BT21" s="4">
         <v>99.71</v>
       </c>
-      <c r="BU21">
+      <c r="BU21" s="4">
         <v>81.010000000000005</v>
       </c>
-      <c r="BV21">
+      <c r="BV21" s="4">
         <v>96.93</v>
       </c>
-      <c r="BW21">
+      <c r="BW21" s="4">
         <v>85.91</v>
       </c>
-      <c r="BX21">
+      <c r="BX21" s="4">
         <v>94.78</v>
       </c>
-      <c r="BY21">
+      <c r="BY21" s="4">
         <v>85.85</v>
       </c>
-      <c r="BZ21">
+      <c r="BZ21" s="4">
         <v>69.099999999999994</v>
       </c>
-      <c r="CA21">
+      <c r="CA21" s="4">
         <v>99.55</v>
       </c>
-      <c r="CB21">
+      <c r="CB21" s="4">
         <v>50.31</v>
       </c>
-      <c r="CC21">
+      <c r="CC21" s="4">
         <v>60.71</v>
       </c>
-      <c r="CD21">
+      <c r="CD21" s="4">
         <v>99.11</v>
       </c>
-      <c r="CE21">
+      <c r="CE21" s="4">
         <v>99.85</v>
       </c>
-      <c r="CF21">
+      <c r="CF21" s="4">
         <v>69.7</v>
       </c>
-      <c r="CG21">
+      <c r="CG21" s="4">
         <v>79.37</v>
       </c>
-      <c r="CH21">
+      <c r="CH21" s="4">
         <v>99.81</v>
       </c>
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22">
+        <v>32</v>
+      </c>
+      <c r="F22" s="4">
         <v>22.73</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>41.12</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="4">
         <v>12.9475</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>40.475000000000001</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>16.855</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>15.842500000000001</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>14.855</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>19.677500000000002</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>17.982499999999998</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="4">
         <v>16.682500000000001</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="4">
         <v>12.772500000000001</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="4">
         <v>27.835000000000001</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="4">
         <v>40.71</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="4">
         <v>9.379999999999999</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="4">
         <v>13.530000000000001</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="4">
         <v>17.465</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="4">
         <v>17.79</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="4">
         <v>16.005000000000003</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="4">
         <v>20.3825</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="4">
         <v>15.702500000000001</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="4">
         <v>28.045000000000002</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="4">
         <v>13.685000000000002</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="4">
         <v>23.9575</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="4">
         <v>22.5</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="4">
         <v>27.997499999999999</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="4">
         <v>12.4125</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="4">
         <v>19.545000000000002</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="4">
         <v>17.419999999999998</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="4">
         <v>19.567499999999999</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="4">
         <v>37.65</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="4">
         <v>25.634999999999998</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" s="4">
         <v>9.5124999999999993</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" s="4">
         <v>18.717500000000001</v>
       </c>
-      <c r="AM22">
+      <c r="AM22" s="4">
         <v>15.95</v>
       </c>
-      <c r="AN22">
+      <c r="AN22" s="4">
         <v>14.807499999999997</v>
       </c>
-      <c r="AO22">
+      <c r="AO22" s="4">
         <v>38.119999999999997</v>
       </c>
-      <c r="AP22">
+      <c r="AP22" s="4">
         <v>17.805</v>
       </c>
-      <c r="AQ22">
+      <c r="AQ22" s="4">
         <v>20.079999999999998</v>
       </c>
-      <c r="AR22">
+      <c r="AR22" s="4">
         <v>12.795</v>
       </c>
-      <c r="AS22">
+      <c r="AS22" s="4">
         <v>15.315</v>
       </c>
-      <c r="AT22">
+      <c r="AT22" s="4">
         <v>17.162500000000001</v>
       </c>
-      <c r="AU22">
+      <c r="AU22" s="4">
         <v>11.837499999999999</v>
       </c>
-      <c r="AV22">
+      <c r="AV22" s="4">
         <v>14.16</v>
       </c>
-      <c r="AW22">
+      <c r="AW22" s="4">
         <v>23.802499999999998</v>
       </c>
-      <c r="AX22">
+      <c r="AX22" s="4">
         <v>15.817500000000001</v>
       </c>
-      <c r="AY22">
+      <c r="AY22" s="4">
         <v>24.905000000000001</v>
       </c>
-      <c r="AZ22">
+      <c r="AZ22" s="4">
         <v>33.175000000000004</v>
       </c>
-      <c r="BA22">
+      <c r="BA22" s="4">
         <v>17.564999999999998</v>
       </c>
-      <c r="BB22">
+      <c r="BB22" s="4">
         <v>30.862499999999997</v>
       </c>
-      <c r="BC22">
+      <c r="BC22" s="4">
         <v>13.7925</v>
       </c>
-      <c r="BD22">
+      <c r="BD22" s="4">
         <v>16.234999999999999</v>
       </c>
-      <c r="BE22">
+      <c r="BE22" s="4">
         <v>24.512499999999999</v>
       </c>
-      <c r="BF22">
+      <c r="BF22" s="4">
         <v>14.6975</v>
       </c>
-      <c r="BG22">
+      <c r="BG22" s="4">
         <v>15.74</v>
       </c>
-      <c r="BH22">
+      <c r="BH22" s="4">
         <v>19.4575</v>
       </c>
-      <c r="BI22">
+      <c r="BI22" s="4">
         <v>28.462499999999999</v>
       </c>
-      <c r="BJ22">
+      <c r="BJ22" s="4">
         <v>13.927500000000002</v>
       </c>
-      <c r="BK22">
+      <c r="BK22" s="4">
         <v>20.1875</v>
       </c>
-      <c r="BL22">
+      <c r="BL22" s="4">
         <v>13.482500000000002</v>
       </c>
-      <c r="BM22">
+      <c r="BM22" s="4">
         <v>18.592500000000001</v>
       </c>
-      <c r="BN22">
+      <c r="BN22" s="4">
         <v>20.512500000000003</v>
       </c>
-      <c r="BO22">
+      <c r="BO22" s="4">
         <v>26.88</v>
       </c>
-      <c r="BP22">
+      <c r="BP22" s="4">
         <v>27.777499999999996</v>
       </c>
-      <c r="BQ22">
+      <c r="BQ22" s="4">
         <v>12.490000000000002</v>
       </c>
-      <c r="BR22">
+      <c r="BR22" s="4">
         <v>30.577500000000001</v>
       </c>
-      <c r="BS22">
+      <c r="BS22" s="4">
         <v>28.744999999999997</v>
       </c>
-      <c r="BT22">
+      <c r="BT22" s="4">
         <v>21.857499999999998</v>
       </c>
-      <c r="BU22">
+      <c r="BU22" s="4">
         <v>19.712499999999999</v>
       </c>
-      <c r="BV22">
+      <c r="BV22" s="4">
         <v>20.3125</v>
       </c>
-      <c r="BW22">
+      <c r="BW22" s="4">
         <v>11.807499999999999</v>
       </c>
-      <c r="BX22">
+      <c r="BX22" s="4">
         <v>14.2075</v>
       </c>
-      <c r="BY22">
+      <c r="BY22" s="4">
         <v>32.19</v>
       </c>
-      <c r="BZ22">
+      <c r="BZ22" s="4">
         <v>33.452500000000001</v>
       </c>
-      <c r="CA22">
+      <c r="CA22" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="CB22">
+      <c r="CB22" s="4">
         <v>44.724999999999994</v>
       </c>
-      <c r="CC22">
+      <c r="CC22" s="4">
         <v>34.590000000000003</v>
       </c>
-      <c r="CD22">
+      <c r="CD22" s="4">
         <v>15.295000000000002</v>
       </c>
-      <c r="CE22">
+      <c r="CE22" s="4">
         <v>18.494999999999997</v>
       </c>
-      <c r="CF22">
+      <c r="CF22" s="4">
         <v>27.012500000000003</v>
       </c>
-      <c r="CG22">
+      <c r="CG22" s="4">
         <v>20.167499999999997</v>
       </c>
-      <c r="CH22">
+      <c r="CH22" s="4">
         <v>20.91</v>
       </c>
     </row>
     <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43.3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="H23" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>53.2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>47.4</v>
+      </c>
+      <c r="K23" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>52.9</v>
+      </c>
+      <c r="M23" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>51.4</v>
+      </c>
+      <c r="O23" s="4">
+        <v>44.4</v>
+      </c>
+      <c r="P23" s="4">
+        <v>48.2</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>50.8</v>
+      </c>
+      <c r="R23" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="S23" s="4">
+        <v>50</v>
+      </c>
+      <c r="T23" s="4">
+        <v>54.9</v>
+      </c>
+      <c r="U23" s="4">
         <v>48</v>
       </c>
-      <c r="F23">
-        <v>43.3</v>
-      </c>
-      <c r="G23">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="H23">
-        <v>51.1</v>
-      </c>
-      <c r="I23">
-        <v>53.2</v>
-      </c>
-      <c r="J23">
-        <v>47.4</v>
-      </c>
-      <c r="K23">
-        <v>44.5</v>
-      </c>
-      <c r="L23">
-        <v>52.9</v>
-      </c>
-      <c r="M23">
+      <c r="V23" s="4">
+        <v>45</v>
+      </c>
+      <c r="W23" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="X23" s="4">
+        <v>48.9</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>54</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>30.2</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>50.1</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>48.9</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>46.7</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>43.6</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>47.9</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>44.4</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>46.4</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>47.3</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>46</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>43.1</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>49.2</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>46.2</v>
+      </c>
+      <c r="AV23" s="4">
+        <v>49.3</v>
+      </c>
+      <c r="AW23" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>52.7</v>
+      </c>
+      <c r="AY23" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="AZ23" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="BA23" s="4">
+        <v>51.5</v>
+      </c>
+      <c r="BB23" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="BC23" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="BD23" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>49</v>
+      </c>
+      <c r="BF23" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="BG23" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="BH23" s="4">
+        <v>47.2</v>
+      </c>
+      <c r="BI23" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="BJ23" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="BK23" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="BL23" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="BM23" s="4">
+        <v>46.7</v>
+      </c>
+      <c r="BN23" s="4">
+        <v>46.6</v>
+      </c>
+      <c r="BO23" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="BP23" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="BQ23" s="4">
+        <v>51.4</v>
+      </c>
+      <c r="BR23" s="4">
+        <v>41.4</v>
+      </c>
+      <c r="BS23" s="4">
         <v>47.1</v>
       </c>
-      <c r="N23">
-        <v>51.4</v>
-      </c>
-      <c r="O23">
-        <v>44.4</v>
-      </c>
-      <c r="P23">
-        <v>48.2</v>
-      </c>
-      <c r="Q23">
-        <v>50.8</v>
-      </c>
-      <c r="R23">
-        <v>41.5</v>
-      </c>
-      <c r="S23">
-        <v>50</v>
-      </c>
-      <c r="T23">
+      <c r="BT23" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="BU23" s="4">
+        <v>47.2</v>
+      </c>
+      <c r="BV23" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="BW23" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="BX23" s="4">
+        <v>41.1</v>
+      </c>
+      <c r="BY23" s="4">
+        <v>27.8</v>
+      </c>
+      <c r="BZ23" s="4">
+        <v>30</v>
+      </c>
+      <c r="CA23" s="4">
         <v>54.9</v>
       </c>
-      <c r="U23">
-        <v>48</v>
-      </c>
-      <c r="V23">
-        <v>45</v>
-      </c>
-      <c r="W23">
-        <v>42.4</v>
-      </c>
-      <c r="X23">
-        <v>48.9</v>
-      </c>
-      <c r="Y23">
-        <v>54</v>
-      </c>
-      <c r="Z23">
-        <v>30.2</v>
-      </c>
-      <c r="AA23">
-        <v>50.1</v>
-      </c>
-      <c r="AB23">
-        <v>48.9</v>
-      </c>
-      <c r="AC23">
-        <v>47.7</v>
-      </c>
-      <c r="AD23">
-        <v>46.7</v>
-      </c>
-      <c r="AE23">
-        <v>42.9</v>
-      </c>
-      <c r="AF23">
-        <v>43.6</v>
-      </c>
-      <c r="AG23">
-        <v>47.9</v>
-      </c>
-      <c r="AH23">
-        <v>46.3</v>
-      </c>
-      <c r="AI23">
-        <v>39.9</v>
-      </c>
-      <c r="AJ23">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="AK23">
-        <v>49.5</v>
-      </c>
-      <c r="AL23">
-        <v>44.4</v>
-      </c>
-      <c r="AM23">
-        <v>46.4</v>
-      </c>
-      <c r="AN23">
-        <v>47.3</v>
-      </c>
-      <c r="AO23">
-        <v>55.5</v>
-      </c>
-      <c r="AP23">
-        <v>44.2</v>
-      </c>
-      <c r="AQ23">
-        <v>46</v>
-      </c>
-      <c r="AR23">
-        <v>49.5</v>
-      </c>
-      <c r="AS23">
-        <v>43.1</v>
-      </c>
-      <c r="AT23">
-        <v>49.2</v>
-      </c>
-      <c r="AU23">
-        <v>46.2</v>
-      </c>
-      <c r="AV23">
-        <v>49.3</v>
-      </c>
-      <c r="AW23">
-        <v>49.9</v>
-      </c>
-      <c r="AX23">
-        <v>52.7</v>
-      </c>
-      <c r="AY23">
-        <v>41.5</v>
-      </c>
-      <c r="AZ23">
-        <v>29.7</v>
-      </c>
-      <c r="BA23">
-        <v>51.5</v>
-      </c>
-      <c r="BB23">
-        <v>41.2</v>
-      </c>
-      <c r="BC23">
-        <v>47.5</v>
-      </c>
-      <c r="BD23">
-        <v>46.3</v>
-      </c>
-      <c r="BE23">
-        <v>49</v>
-      </c>
-      <c r="BF23">
-        <v>48.1</v>
-      </c>
-      <c r="BG23">
-        <v>49.7</v>
-      </c>
-      <c r="BH23">
-        <v>47.2</v>
-      </c>
-      <c r="BI23">
-        <v>29.8</v>
-      </c>
-      <c r="BJ23">
-        <v>43.5</v>
-      </c>
-      <c r="BK23">
-        <v>44.7</v>
-      </c>
-      <c r="BL23">
-        <v>52.6</v>
-      </c>
-      <c r="BM23">
-        <v>46.7</v>
-      </c>
-      <c r="BN23">
-        <v>46.6</v>
-      </c>
-      <c r="BO23">
-        <v>49.7</v>
-      </c>
-      <c r="BP23">
-        <v>32.4</v>
-      </c>
-      <c r="BQ23">
-        <v>51.4</v>
-      </c>
-      <c r="BR23">
-        <v>41.4</v>
-      </c>
-      <c r="BS23">
-        <v>47.1</v>
-      </c>
-      <c r="BT23">
-        <v>51.2</v>
-      </c>
-      <c r="BU23">
-        <v>47.2</v>
-      </c>
-      <c r="BV23">
-        <v>48.1</v>
-      </c>
-      <c r="BW23">
-        <v>48.1</v>
-      </c>
-      <c r="BX23">
+      <c r="CB23" s="4">
+        <v>59.1</v>
+      </c>
+      <c r="CC23" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="CD23" s="4">
+        <v>46.9</v>
+      </c>
+      <c r="CE23" s="4">
+        <v>50.7</v>
+      </c>
+      <c r="CF23" s="4">
         <v>41.1</v>
       </c>
-      <c r="BY23">
-        <v>27.8</v>
-      </c>
-      <c r="BZ23">
-        <v>30</v>
-      </c>
-      <c r="CA23">
-        <v>54.9</v>
-      </c>
-      <c r="CB23">
-        <v>59.1</v>
-      </c>
-      <c r="CC23">
-        <v>54.5</v>
-      </c>
-      <c r="CD23">
-        <v>46.9</v>
-      </c>
-      <c r="CE23">
-        <v>50.7</v>
-      </c>
-      <c r="CF23">
-        <v>41.1</v>
-      </c>
-      <c r="CG23">
+      <c r="CG23" s="4">
         <v>37.799999999999997</v>
       </c>
-      <c r="CH23">
+      <c r="CH23" s="4">
         <v>51.7</v>
       </c>
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24">
+        <v>32</v>
+      </c>
+      <c r="F24" s="4">
         <v>13.2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>9.1</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>5.6</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>6.8</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>6.6</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <v>7.9</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>7.1</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>6.9</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="4">
         <v>6</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="4">
         <v>6.5</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="4">
         <v>7</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="4">
         <v>10.6</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="4">
         <v>9.6</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="4">
         <v>6.9</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="4">
         <v>6.6</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="4">
         <v>6.1</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="4">
         <v>6.8</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="4">
         <v>5.9</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="4">
         <v>6.5</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="4">
         <v>18.7</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="4">
         <v>7.8</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="4">
         <v>7.8</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="4">
         <v>6.7</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="4">
         <v>6.6</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="4">
         <v>8.5</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="4">
         <v>6.9</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="4">
         <v>6.5</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="4">
         <v>7.2</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" s="4">
         <v>11.7</v>
       </c>
-      <c r="AJ24">
+      <c r="AJ24" s="4">
         <v>12.2</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AL24">
+      <c r="AL24" s="4">
         <v>12.4</v>
       </c>
-      <c r="AM24">
+      <c r="AM24" s="4">
         <v>11.2</v>
       </c>
-      <c r="AN24">
+      <c r="AN24" s="4">
         <v>15.4</v>
       </c>
-      <c r="AO24">
+      <c r="AO24" s="4">
         <v>6.6</v>
       </c>
-      <c r="AP24">
+      <c r="AP24" s="4">
         <v>6.2</v>
       </c>
-      <c r="AQ24">
+      <c r="AQ24" s="4">
         <v>9.9</v>
       </c>
-      <c r="AR24">
+      <c r="AR24" s="4">
         <v>8</v>
       </c>
-      <c r="AS24">
+      <c r="AS24" s="4">
         <v>7.3</v>
       </c>
-      <c r="AT24">
+      <c r="AT24" s="4">
         <v>10.1</v>
       </c>
-      <c r="AU24">
+      <c r="AU24" s="4">
         <v>4.7</v>
       </c>
-      <c r="AV24">
+      <c r="AV24" s="4">
         <v>6</v>
       </c>
-      <c r="AW24">
+      <c r="AW24" s="4">
         <v>7.8</v>
       </c>
-      <c r="AX24">
+      <c r="AX24" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="AY24">
+      <c r="AY24" s="4">
         <v>11.6</v>
       </c>
-      <c r="AZ24">
+      <c r="AZ24" s="4">
         <v>20.6</v>
       </c>
-      <c r="BA24">
+      <c r="BA24" s="4">
         <v>7.3</v>
       </c>
-      <c r="BB24">
+      <c r="BB24" s="4">
         <v>10.4</v>
       </c>
-      <c r="BC24">
+      <c r="BC24" s="4">
         <v>6</v>
       </c>
-      <c r="BD24">
+      <c r="BD24" s="4">
         <v>6.1</v>
       </c>
-      <c r="BE24">
+      <c r="BE24" s="4">
         <v>6.1</v>
       </c>
-      <c r="BF24">
+      <c r="BF24" s="4">
         <v>6.7</v>
       </c>
-      <c r="BG24">
+      <c r="BG24" s="4">
         <v>9.4</v>
       </c>
-      <c r="BH24">
+      <c r="BH24" s="4">
         <v>6.6</v>
       </c>
-      <c r="BI24">
+      <c r="BI24" s="4">
         <v>20.5</v>
       </c>
-      <c r="BJ24">
+      <c r="BJ24" s="4">
         <v>6.2</v>
       </c>
-      <c r="BK24">
+      <c r="BK24" s="4">
         <v>10</v>
       </c>
-      <c r="BL24">
+      <c r="BL24" s="4">
         <v>7.2</v>
       </c>
-      <c r="BM24">
+      <c r="BM24" s="4">
         <v>6.6</v>
       </c>
-      <c r="BN24">
+      <c r="BN24" s="4">
         <v>7.4</v>
       </c>
-      <c r="BO24">
+      <c r="BO24" s="4">
         <v>8.1</v>
       </c>
-      <c r="BP24">
+      <c r="BP24" s="4">
         <v>16.3</v>
       </c>
-      <c r="BQ24">
+      <c r="BQ24" s="4">
         <v>5.4</v>
       </c>
-      <c r="BR24">
+      <c r="BR24" s="4">
         <v>10.3</v>
       </c>
-      <c r="BS24">
+      <c r="BS24" s="4">
         <v>8.6</v>
       </c>
-      <c r="BT24">
+      <c r="BT24" s="4">
         <v>7.6</v>
       </c>
-      <c r="BU24">
+      <c r="BU24" s="4">
         <v>5.8</v>
       </c>
-      <c r="BV24">
+      <c r="BV24" s="4">
         <v>6.2</v>
       </c>
-      <c r="BW24">
+      <c r="BW24" s="4">
         <v>4.2</v>
       </c>
-      <c r="BX24">
+      <c r="BX24" s="4">
         <v>8</v>
       </c>
-      <c r="BY24">
+      <c r="BY24" s="4">
         <v>23.4</v>
       </c>
-      <c r="BZ24">
+      <c r="BZ24" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="CA24">
+      <c r="CA24" s="4">
         <v>6.2</v>
       </c>
-      <c r="CB24">
+      <c r="CB24" s="4">
         <v>5.8</v>
       </c>
-      <c r="CC24">
+      <c r="CC24" s="4">
         <v>6.9</v>
       </c>
-      <c r="CD24">
+      <c r="CD24" s="4">
         <v>11</v>
       </c>
-      <c r="CE24">
+      <c r="CE24" s="4">
         <v>8</v>
       </c>
-      <c r="CF24">
+      <c r="CF24" s="4">
         <v>7.7</v>
       </c>
-      <c r="CG24">
+      <c r="CG24" s="4">
         <v>14</v>
       </c>
-      <c r="CH24">
+      <c r="CH24" s="4">
         <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25">
+        <v>32</v>
+      </c>
+      <c r="F25" s="4">
         <v>59.064890714448964</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>53.242813891799265</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>53.911572753496607</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>56.108035489093737</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>53.77364817066595</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>70.14221779499178</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="4">
         <v>59.508821249657565</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="4">
         <v>66.479942768546962</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
         <v>53.888070285492198</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="4">
         <v>56.022555017448809</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="4">
         <v>67.121878528169447</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="4">
         <v>54.212764778081322</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="4">
         <v>54.893532891341458</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
         <v>58.225350361308536</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="4">
         <v>55.480693844254347</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="4">
         <v>64.060387051611244</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="4">
         <v>57.98610670358341</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="4">
         <v>58.592337313632498</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="4">
         <v>52.45183981888993</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="4">
         <v>52.853374464883402</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="4">
         <v>55.077289115326884</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="4">
         <v>53.142114548506029</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="4">
         <v>56.951191777713603</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="4">
         <v>63.279264583490956</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="4">
         <v>59.916293453482751</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="4">
         <v>66.805292483077366</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="4">
         <v>52.666571694017719</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="4">
         <v>49.11278463808106</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="4">
         <v>59.13549427482635</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" s="4">
         <v>58.320687907287137</v>
       </c>
-      <c r="AJ25">
+      <c r="AJ25" s="4">
         <v>58.761496051056177</v>
       </c>
-      <c r="AK25">
+      <c r="AK25" s="4">
         <v>54.547128060129054</v>
       </c>
-      <c r="AL25">
+      <c r="AL25" s="4">
         <v>55.98491926006529</v>
       </c>
-      <c r="AM25">
+      <c r="AM25" s="4">
         <v>71.689501986443716</v>
       </c>
-      <c r="AN25">
+      <c r="AN25" s="4">
         <v>63.795230556999869</v>
       </c>
-      <c r="AO25">
+      <c r="AO25" s="4">
         <v>57.751146824961182</v>
       </c>
-      <c r="AP25">
+      <c r="AP25" s="4">
         <v>55.923319774642088</v>
       </c>
-      <c r="AQ25">
+      <c r="AQ25" s="4">
         <v>57.292177859378917</v>
       </c>
-      <c r="AR25">
+      <c r="AR25" s="4">
         <v>62.956674731701902</v>
       </c>
-      <c r="AS25">
+      <c r="AS25" s="4">
         <v>59.443406510031991</v>
       </c>
-      <c r="AT25">
+      <c r="AT25" s="4">
         <v>81.995034841897962</v>
       </c>
-      <c r="AU25">
+      <c r="AU25" s="4">
         <v>54.695970335071522</v>
       </c>
-      <c r="AV25">
+      <c r="AV25" s="4">
         <v>60.322299928054512</v>
       </c>
-      <c r="AW25">
+      <c r="AW25" s="4">
         <v>51.943869819617895</v>
       </c>
-      <c r="AX25">
+      <c r="AX25" s="4">
         <v>63.028658377827</v>
       </c>
-      <c r="AY25">
+      <c r="AY25" s="4">
         <v>55.28602756533931</v>
       </c>
-      <c r="AZ25">
+      <c r="AZ25" s="4">
         <v>49.041756793112725</v>
       </c>
-      <c r="BA25">
+      <c r="BA25" s="4">
         <v>57.722178329434591</v>
       </c>
-      <c r="BB25">
+      <c r="BB25" s="4">
         <v>59.037810957955486</v>
       </c>
-      <c r="BC25">
+      <c r="BC25" s="4">
         <v>49.893552335735393</v>
       </c>
-      <c r="BD25">
+      <c r="BD25" s="4">
         <v>52.197030420601592</v>
       </c>
-      <c r="BE25">
+      <c r="BE25" s="4">
         <v>51.081449454546217</v>
       </c>
-      <c r="BF25">
+      <c r="BF25" s="4">
         <v>57.39645703836365</v>
       </c>
-      <c r="BG25">
+      <c r="BG25" s="4">
         <v>63.174501595840617</v>
       </c>
-      <c r="BH25">
+      <c r="BH25" s="4">
         <v>55.188921163669548</v>
       </c>
-      <c r="BI25">
+      <c r="BI25" s="4">
         <v>57.209877967016105</v>
       </c>
-      <c r="BJ25">
+      <c r="BJ25" s="4">
         <v>51.477374524427645</v>
       </c>
-      <c r="BK25">
+      <c r="BK25" s="4">
         <v>61.232259663935608</v>
       </c>
-      <c r="BL25">
+      <c r="BL25" s="4">
         <v>65.236957288812633</v>
       </c>
-      <c r="BM25">
+      <c r="BM25" s="4">
         <v>52.34156788354386</v>
       </c>
-      <c r="BN25">
+      <c r="BN25" s="4">
         <v>53.309792843055824</v>
       </c>
-      <c r="BO25">
+      <c r="BO25" s="4">
         <v>61.537715787666258</v>
       </c>
-      <c r="BP25">
+      <c r="BP25" s="4">
         <v>52.237502037458981</v>
       </c>
-      <c r="BQ25">
+      <c r="BQ25" s="4">
         <v>51.994932402571514</v>
       </c>
-      <c r="BR25">
+      <c r="BR25" s="4">
         <v>56.172557854577896</v>
       </c>
-      <c r="BS25">
+      <c r="BS25" s="4">
         <v>58.956221958690506</v>
       </c>
-      <c r="BT25">
+      <c r="BT25" s="4">
         <v>85.552620845713818</v>
       </c>
-      <c r="BU25">
+      <c r="BU25" s="4">
         <v>55.656990016379957</v>
       </c>
-      <c r="BV25">
+      <c r="BV25" s="4">
         <v>53.477566608869097</v>
       </c>
-      <c r="BW25">
+      <c r="BW25" s="4">
         <v>53.131399584939459</v>
       </c>
-      <c r="BX25">
+      <c r="BX25" s="4">
         <v>68.41382648735582</v>
       </c>
-      <c r="BY25">
+      <c r="BY25" s="4">
         <v>59.232944823461928</v>
       </c>
-      <c r="BZ25">
+      <c r="BZ25" s="4">
         <v>49.41608428786747</v>
       </c>
-      <c r="CA25">
+      <c r="CA25" s="4">
         <v>54.571630142091216</v>
       </c>
-      <c r="CB25">
+      <c r="CB25" s="4">
         <v>54.06447158170986</v>
       </c>
-      <c r="CC25">
+      <c r="CC25" s="4">
         <v>50.62224506901272</v>
       </c>
-      <c r="CD25">
+      <c r="CD25" s="4">
         <v>59.885323546940185</v>
       </c>
-      <c r="CE25">
+      <c r="CE25" s="4">
         <v>61.064260720734801</v>
       </c>
-      <c r="CF25">
+      <c r="CF25" s="4">
         <v>46.866334766538429</v>
       </c>
-      <c r="CG25">
+      <c r="CG25" s="4">
         <v>53.668235607371763</v>
       </c>
-      <c r="CH25">
+      <c r="CH25" s="4">
         <v>52.701835198131434</v>
       </c>
     </row>
     <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
         <v>7</v>
@@ -7325,258 +7296,258 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26">
+        <v>32</v>
+      </c>
+      <c r="F26" s="4">
         <v>73.319999999999993</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>64.260000000000005</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="4">
         <v>85.34</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>63.97</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>88.73</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <v>78.86</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="4">
         <v>78.62</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="4">
         <v>84.92</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="4">
         <v>81.55</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="4">
         <v>86.94</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="4">
         <v>85.23</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="4">
         <v>71.2</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="4">
         <v>70.97</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="4">
         <v>85.37</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="4">
         <v>82.45</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="4">
         <v>82.83</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="4">
         <v>81.86</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="4">
         <v>78.260000000000005</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="4">
         <v>72.3</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="4">
         <v>84.07</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="4">
         <v>71.56</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="4">
         <v>78.48</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="4">
         <v>72.8</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="4">
         <v>79.819999999999993</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="4">
         <v>79.209999999999994</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="4">
         <v>80</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="4">
         <v>73.599999999999994</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="4">
         <v>82.32</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="4">
         <v>82.74</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="4">
         <v>72.069999999999993</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="4">
         <v>71.760000000000005</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="4">
         <v>90.92</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="4">
         <v>72.7</v>
       </c>
-      <c r="AM26">
+      <c r="AM26" s="4">
         <v>78.77</v>
       </c>
-      <c r="AN26">
+      <c r="AN26" s="4">
         <v>79.540000000000006</v>
       </c>
-      <c r="AO26">
+      <c r="AO26" s="4">
         <v>77.34</v>
       </c>
-      <c r="AP26">
+      <c r="AP26" s="4">
         <v>81.75</v>
       </c>
-      <c r="AQ26">
+      <c r="AQ26" s="4">
         <v>79.09</v>
       </c>
-      <c r="AR26">
+      <c r="AR26" s="4">
         <v>79.58</v>
       </c>
-      <c r="AS26">
+      <c r="AS26" s="4">
         <v>83.1</v>
       </c>
-      <c r="AT26">
+      <c r="AT26" s="4">
         <v>75.290000000000006</v>
       </c>
-      <c r="AU26">
+      <c r="AU26" s="4">
         <v>84.75</v>
       </c>
-      <c r="AV26">
+      <c r="AV26" s="4">
         <v>87.96</v>
       </c>
-      <c r="AW26">
+      <c r="AW26" s="4">
         <v>78.12</v>
       </c>
-      <c r="AX26">
+      <c r="AX26" s="4">
         <v>77.260000000000005</v>
       </c>
-      <c r="AY26">
+      <c r="AY26" s="4">
         <v>78.84</v>
       </c>
-      <c r="AZ26">
+      <c r="AZ26" s="4">
         <v>67.27</v>
       </c>
-      <c r="BA26">
+      <c r="BA26" s="4">
         <v>81.45</v>
       </c>
-      <c r="BB26">
+      <c r="BB26" s="4">
         <v>69.400000000000006</v>
       </c>
-      <c r="BC26">
+      <c r="BC26" s="4">
         <v>81.39</v>
       </c>
-      <c r="BD26">
+      <c r="BD26" s="4">
         <v>81.59</v>
       </c>
-      <c r="BE26">
+      <c r="BE26" s="4">
         <v>77.7</v>
       </c>
-      <c r="BF26">
+      <c r="BF26" s="4">
         <v>91.6</v>
       </c>
-      <c r="BG26">
+      <c r="BG26" s="4">
         <v>81.16</v>
       </c>
-      <c r="BH26">
+      <c r="BH26" s="4">
         <v>80.87</v>
       </c>
-      <c r="BI26">
+      <c r="BI26" s="4">
         <v>72.47</v>
       </c>
-      <c r="BJ26">
+      <c r="BJ26" s="4">
         <v>89.3</v>
       </c>
-      <c r="BK26">
+      <c r="BK26" s="4">
         <v>79.22</v>
       </c>
-      <c r="BL26">
+      <c r="BL26" s="4">
         <v>82.4</v>
       </c>
-      <c r="BM26">
+      <c r="BM26" s="4">
         <v>85.15</v>
       </c>
-      <c r="BN26">
+      <c r="BN26" s="4">
         <v>78.03</v>
       </c>
-      <c r="BO26">
+      <c r="BO26" s="4">
         <v>75.95</v>
       </c>
-      <c r="BP26">
+      <c r="BP26" s="4">
         <v>70.400000000000006</v>
       </c>
-      <c r="BQ26">
+      <c r="BQ26" s="4">
         <v>91.12</v>
       </c>
-      <c r="BR26">
+      <c r="BR26" s="4">
         <v>64.7</v>
       </c>
-      <c r="BS26">
+      <c r="BS26" s="4">
         <v>77.42</v>
       </c>
-      <c r="BT26">
+      <c r="BT26" s="4">
         <v>80.489999999999995</v>
       </c>
-      <c r="BU26">
+      <c r="BU26" s="4">
         <v>85.71</v>
       </c>
-      <c r="BV26">
+      <c r="BV26" s="4">
         <v>76.489999999999995</v>
       </c>
-      <c r="BW26">
+      <c r="BW26" s="4">
         <v>88.91</v>
       </c>
-      <c r="BX26">
+      <c r="BX26" s="4">
         <v>84.2</v>
       </c>
-      <c r="BY26">
+      <c r="BY26" s="4">
         <v>64.97</v>
       </c>
-      <c r="BZ26">
+      <c r="BZ26" s="4">
         <v>73.84</v>
       </c>
-      <c r="CA26">
+      <c r="CA26" s="4">
         <v>85.26</v>
       </c>
-      <c r="CB26">
+      <c r="CB26" s="4">
         <v>70.19</v>
       </c>
-      <c r="CC26">
+      <c r="CC26" s="4">
         <v>72.599999999999994</v>
       </c>
-      <c r="CD26">
+      <c r="CD26" s="4">
         <v>83.74</v>
       </c>
-      <c r="CE26">
+      <c r="CE26" s="4">
         <v>84.12</v>
       </c>
-      <c r="CF26">
+      <c r="CF26" s="4">
         <v>73.87</v>
       </c>
-      <c r="CG26">
+      <c r="CG26" s="4">
         <v>73.290000000000006</v>
       </c>
-      <c r="CH26">
+      <c r="CH26" s="4">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
         <v>8</v>
@@ -7585,1133 +7556,3535 @@
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27">
+        <v>32</v>
+      </c>
+      <c r="F27" s="4">
         <v>5427.7249439530478</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>1542.6664547910377</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>4062.0552089482721</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>842.04682992528683</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>3120.9798920826433</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>11461.948104803196</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="4">
         <v>8352.9242378840281</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <v>3736.5300517462902</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="4">
         <v>6738.8095153549157</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="4">
         <v>6583.0712909473641</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="4">
         <v>3175.7818268429201</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="4">
         <v>1579.5112379190959</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="4">
         <v>838.50507214006143</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="4">
         <v>4500.0087784289417</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="4">
         <v>5212.1775957773125</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="4">
         <v>6326.0115822594771</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="4">
         <v>5232.2671408194765</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="4">
         <v>3195.6959956415144</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="4">
         <v>3821.5450855430372</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="4">
         <v>7142.2611627669357</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="4">
         <v>1509.5874861166155</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="4">
         <v>6230.3237733586493</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="4">
         <v>3475.9324346421031</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="4">
         <v>4626.6427584479925</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="4">
         <v>1800.6235916784572</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="4">
         <v>6569.7902304510535</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="4">
         <v>2467.5601466234375</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="4">
         <v>4701.2749311602292</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="4">
         <v>2668.4659692660894</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="4">
         <v>689.35925324028995</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" s="4">
         <v>4695.4408238783662</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" s="4">
         <v>6220.8462677300731</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" s="4">
         <v>5218.2908719326333</v>
       </c>
-      <c r="AM27">
+      <c r="AM27" s="4">
         <v>18131.025015062234</v>
       </c>
-      <c r="AN27">
+      <c r="AN27" s="4">
         <v>10345.53491891219</v>
       </c>
-      <c r="AO27">
+      <c r="AO27" s="4">
         <v>2015.937746655603</v>
       </c>
-      <c r="AP27">
+      <c r="AP27" s="4">
         <v>3555.4679092562624</v>
       </c>
-      <c r="AQ27">
+      <c r="AQ27" s="4">
         <v>5045.0363587965903</v>
       </c>
-      <c r="AR27">
+      <c r="AR27" s="4">
         <v>6600.1664130709905</v>
       </c>
-      <c r="AS27">
+      <c r="AS27" s="4">
         <v>5867.1303551302835</v>
       </c>
-      <c r="AT27">
+      <c r="AT27" s="4">
         <v>5489.0221993911055</v>
       </c>
-      <c r="AU27">
+      <c r="AU27" s="4">
         <v>4062.0853107537528</v>
       </c>
-      <c r="AV27">
+      <c r="AV27" s="4">
         <v>3350.8592363976109</v>
       </c>
-      <c r="AW27">
+      <c r="AW27" s="4">
         <v>3430.4536192862265</v>
       </c>
-      <c r="AX27">
+      <c r="AX27" s="4">
         <v>3764.8308910340997</v>
       </c>
-      <c r="AY27">
+      <c r="AY27" s="4">
         <v>2336.1278486150163</v>
       </c>
-      <c r="AZ27">
+      <c r="AZ27" s="4">
         <v>1030.2282901307485</v>
       </c>
-      <c r="BA27">
+      <c r="BA27" s="4">
         <v>10527.433485856487</v>
       </c>
-      <c r="BB27">
+      <c r="BB27" s="4">
         <v>759.0584996692736</v>
       </c>
-      <c r="BC27">
+      <c r="BC27" s="4">
         <v>6201.3973799126634</v>
       </c>
-      <c r="BD27">
+      <c r="BD27" s="4">
         <v>2927.8855939842629</v>
       </c>
-      <c r="BE27">
+      <c r="BE27" s="4">
         <v>3464.4924254557704</v>
       </c>
-      <c r="BF27">
+      <c r="BF27" s="4">
         <v>3899.8844680831708</v>
       </c>
-      <c r="BG27">
+      <c r="BG27" s="4">
         <v>3801.6491799130699</v>
       </c>
-      <c r="BH27">
+      <c r="BH27" s="4">
         <v>4097.3496620836877</v>
       </c>
-      <c r="BI27">
+      <c r="BI27" s="4">
         <v>1161.9394030769618</v>
       </c>
-      <c r="BJ27">
+      <c r="BJ27" s="4">
         <v>4370.5788017171408</v>
       </c>
-      <c r="BK27">
+      <c r="BK27" s="4">
         <v>4718.8902226872688</v>
       </c>
-      <c r="BL27">
+      <c r="BL27" s="4">
         <v>5364.5123366110383</v>
       </c>
-      <c r="BM27">
+      <c r="BM27" s="4">
         <v>2259.5999464811348</v>
       </c>
-      <c r="BN27">
+      <c r="BN27" s="4">
         <v>5825.6740507732311</v>
       </c>
-      <c r="BO27">
+      <c r="BO27" s="4">
         <v>7184.4510961896285</v>
       </c>
-      <c r="BP27">
+      <c r="BP27" s="4">
         <v>833.3702666840768</v>
       </c>
-      <c r="BQ27">
+      <c r="BQ27" s="4">
         <v>7665.9579521488931</v>
       </c>
-      <c r="BR27">
+      <c r="BR27" s="4">
         <v>1128.7568790521232</v>
       </c>
-      <c r="BS27">
+      <c r="BS27" s="4">
         <v>3805.8789532088035</v>
       </c>
-      <c r="BT27">
+      <c r="BT27" s="4">
         <v>7028.7359969004465</v>
       </c>
-      <c r="BU27">
+      <c r="BU27" s="4">
         <v>5611.9864047552128</v>
       </c>
-      <c r="BV27">
+      <c r="BV27" s="4">
         <v>2097.1875891671939</v>
       </c>
-      <c r="BW27">
+      <c r="BW27" s="4">
         <v>4864.4627686572749</v>
       </c>
-      <c r="BX27">
+      <c r="BX27" s="4">
         <v>2890.1590603927816</v>
       </c>
-      <c r="BY27">
+      <c r="BY27" s="4">
         <v>1594.4317808867759</v>
       </c>
-      <c r="BZ27">
+      <c r="BZ27" s="4">
         <v>616.21462432970804</v>
       </c>
-      <c r="CA27">
+      <c r="CA27" s="4">
         <v>5818.0618251894093</v>
       </c>
-      <c r="CB27">
+      <c r="CB27" s="4">
         <v>2127.835808310766</v>
       </c>
-      <c r="CC27">
+      <c r="CC27" s="4">
         <v>2216.6763860540677</v>
       </c>
-      <c r="CD27">
+      <c r="CD27" s="4">
         <v>7456.505999629162</v>
       </c>
-      <c r="CE27">
+      <c r="CE27" s="4">
         <v>4244.7164909459525</v>
       </c>
-      <c r="CF27">
+      <c r="CF27" s="4">
         <v>1339.2814157367934</v>
       </c>
-      <c r="CG27">
+      <c r="CG27" s="4">
         <v>1925.5278636640774</v>
       </c>
-      <c r="CH27">
+      <c r="CH27" s="4">
         <v>3087.827556820579</v>
       </c>
     </row>
     <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28">
+        <v>32</v>
+      </c>
+      <c r="F28" s="4">
         <v>34.06</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>16.27</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
         <v>29.73</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>22.56</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>34.79</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <v>58.91</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="4">
         <v>45.53</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
         <v>37.72</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="4">
         <v>34.909999999999997</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="4">
         <v>29.66</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="4">
         <v>41.44</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="4">
         <v>23.35</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="4">
         <v>26.51</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="4">
         <v>44.59</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="4">
         <v>31</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="4">
         <v>42.79</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="4">
         <v>31.35</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="4">
         <v>39.1</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="4">
         <v>30.68</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="4">
         <v>39.03</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="4">
         <v>28.78</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="4">
         <v>39.35</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="4">
         <v>32.380000000000003</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="4">
         <v>34.159999999999997</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="4">
         <v>30.77</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="4">
         <v>42.27</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="4">
         <v>27.94</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="4">
         <v>29.71</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="4">
         <v>33.36</v>
       </c>
-      <c r="AI28">
+      <c r="AI28" s="4">
         <v>23.75</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ28" s="4">
         <v>30.09</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" s="4">
         <v>28.11</v>
       </c>
-      <c r="AL28">
+      <c r="AL28" s="4">
         <v>29.64</v>
       </c>
-      <c r="AM28">
+      <c r="AM28" s="4">
         <v>56.18</v>
       </c>
-      <c r="AN28">
+      <c r="AN28" s="4">
         <v>49.8</v>
       </c>
-      <c r="AO28">
+      <c r="AO28" s="4">
         <v>28.01</v>
       </c>
-      <c r="AP28">
+      <c r="AP28" s="4">
         <v>38.53</v>
       </c>
-      <c r="AQ28">
+      <c r="AQ28" s="4">
         <v>38.24</v>
       </c>
-      <c r="AR28">
+      <c r="AR28" s="4">
         <v>45.42</v>
       </c>
-      <c r="AS28">
+      <c r="AS28" s="4">
         <v>37.51</v>
       </c>
-      <c r="AT28">
+      <c r="AT28" s="4">
         <v>53.47</v>
       </c>
-      <c r="AU28">
+      <c r="AU28" s="4">
         <v>37.340000000000003</v>
       </c>
-      <c r="AV28">
+      <c r="AV28" s="4">
         <v>38.6</v>
       </c>
-      <c r="AW28">
+      <c r="AW28" s="4">
         <v>28.86</v>
       </c>
-      <c r="AX28">
+      <c r="AX28" s="4">
         <v>28.43</v>
       </c>
-      <c r="AY28">
+      <c r="AY28" s="4">
         <v>26.23</v>
       </c>
-      <c r="AZ28">
+      <c r="AZ28" s="4">
         <v>23.41</v>
       </c>
-      <c r="BA28">
+      <c r="BA28" s="4">
         <v>38.94</v>
       </c>
-      <c r="BB28">
+      <c r="BB28" s="4">
         <v>22.61</v>
       </c>
-      <c r="BC28">
+      <c r="BC28" s="4">
         <v>36.65</v>
       </c>
-      <c r="BD28">
+      <c r="BD28" s="4">
         <v>27.95</v>
       </c>
-      <c r="BE28">
+      <c r="BE28" s="4">
         <v>29.89</v>
       </c>
-      <c r="BF28">
+      <c r="BF28" s="4">
         <v>37.700000000000003</v>
       </c>
-      <c r="BG28">
+      <c r="BG28" s="4">
         <v>38.479999999999997</v>
       </c>
-      <c r="BH28">
+      <c r="BH28" s="4">
         <v>36.14</v>
       </c>
-      <c r="BI28">
+      <c r="BI28" s="4">
         <v>36.25</v>
       </c>
-      <c r="BJ28">
+      <c r="BJ28" s="4">
         <v>39.549999999999997</v>
       </c>
-      <c r="BK28">
+      <c r="BK28" s="4">
         <v>33.47</v>
       </c>
-      <c r="BL28">
+      <c r="BL28" s="4">
         <v>51.56</v>
       </c>
-      <c r="BM28">
+      <c r="BM28" s="4">
         <v>29.66</v>
       </c>
-      <c r="BN28">
+      <c r="BN28" s="4">
         <v>36.020000000000003</v>
       </c>
-      <c r="BO28">
+      <c r="BO28" s="4">
         <v>36.07</v>
       </c>
-      <c r="BP28">
+      <c r="BP28" s="4">
         <v>21.42</v>
       </c>
-      <c r="BQ28">
+      <c r="BQ28" s="4">
         <v>31.06</v>
       </c>
-      <c r="BR28">
+      <c r="BR28" s="4">
         <v>21.29</v>
       </c>
-      <c r="BS28">
+      <c r="BS28" s="4">
         <v>25.96</v>
       </c>
-      <c r="BT28">
+      <c r="BT28" s="4">
         <v>49.95</v>
       </c>
-      <c r="BU28">
+      <c r="BU28" s="4">
         <v>32.97</v>
       </c>
-      <c r="BV28">
+      <c r="BV28" s="4">
         <v>38.92</v>
       </c>
-      <c r="BW28">
+      <c r="BW28" s="4">
         <v>34.61</v>
       </c>
-      <c r="BX28">
+      <c r="BX28" s="4">
         <v>37.46</v>
       </c>
-      <c r="BY28">
+      <c r="BY28" s="4">
         <v>28.74</v>
       </c>
-      <c r="BZ28">
+      <c r="BZ28" s="4">
         <v>23.46</v>
       </c>
-      <c r="CA28">
+      <c r="CA28" s="4">
         <v>50.61</v>
       </c>
-      <c r="CB28">
+      <c r="CB28" s="4">
         <v>18.23</v>
       </c>
-      <c r="CC28">
+      <c r="CC28" s="4">
         <v>30</v>
       </c>
-      <c r="CD28">
+      <c r="CD28" s="4">
         <v>38.799999999999997</v>
       </c>
-      <c r="CE28">
+      <c r="CE28" s="4">
         <v>42.16</v>
       </c>
-      <c r="CF28">
+      <c r="CF28" s="4">
         <v>23.63</v>
       </c>
-      <c r="CG28">
+      <c r="CG28" s="4">
         <v>29.11</v>
       </c>
-      <c r="CH28">
+      <c r="CH28" s="4">
         <v>41.3</v>
       </c>
     </row>
     <row r="29" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="F29" s="4">
         <v>59.77</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>74.77</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>44.08</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>73.540000000000006</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>43.75</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>42.38</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>48.66</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <v>39.96</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="4">
         <v>49.94</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="4">
         <v>45.03</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="4">
         <v>40.479999999999997</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="4">
         <v>55.87</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="4">
         <v>65.81</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="4">
         <v>38.9</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="4">
         <v>46.56</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="4">
         <v>46.66</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="4">
         <v>46.16</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="4">
         <v>42.39</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="4">
         <v>53.33</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="4">
         <v>44.46</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="4">
         <v>72.44</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="4">
         <v>47.43</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="4">
         <v>54.68</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="4">
         <v>44.59</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="4">
         <v>50.29</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="4">
         <v>44.2</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="4">
         <v>58.67</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="4">
         <v>47.26</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="4">
         <v>43.55</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="4">
         <v>61.91</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" s="4">
         <v>53.71</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" s="4">
         <v>33.520000000000003</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" s="4">
         <v>62.75</v>
       </c>
-      <c r="AM29">
+      <c r="AM29" s="4">
         <v>45.41</v>
       </c>
-      <c r="AN29">
+      <c r="AN29" s="4">
         <v>48.63</v>
       </c>
-      <c r="AO29">
+      <c r="AO29" s="4">
         <v>66.64</v>
       </c>
-      <c r="AP29">
+      <c r="AP29" s="4">
         <v>47.05</v>
       </c>
-      <c r="AQ29">
+      <c r="AQ29" s="4">
         <v>42.72</v>
       </c>
-      <c r="AR29">
+      <c r="AR29" s="4">
         <v>45.11</v>
       </c>
-      <c r="AS29">
+      <c r="AS29" s="4">
         <v>47.05</v>
       </c>
-      <c r="AT29">
+      <c r="AT29" s="4">
         <v>43.89</v>
       </c>
-      <c r="AU29">
+      <c r="AU29" s="4">
         <v>45.27</v>
       </c>
-      <c r="AV29">
+      <c r="AV29" s="4">
         <v>34.53</v>
       </c>
-      <c r="AW29">
+      <c r="AW29" s="4">
         <v>54.51</v>
       </c>
-      <c r="AX29">
+      <c r="AX29" s="4">
         <v>44.61</v>
       </c>
-      <c r="AY29">
+      <c r="AY29" s="4">
         <v>55.78</v>
       </c>
-      <c r="AZ29">
+      <c r="AZ29" s="4">
         <v>66.709999999999994</v>
       </c>
-      <c r="BA29">
+      <c r="BA29" s="4">
         <v>51.31</v>
       </c>
-      <c r="BB29">
+      <c r="BB29" s="4">
         <v>69.290000000000006</v>
       </c>
-      <c r="BC29">
+      <c r="BC29" s="4">
         <v>45.18</v>
       </c>
-      <c r="BD29">
+      <c r="BD29" s="4">
         <v>50.46</v>
       </c>
-      <c r="BE29">
+      <c r="BE29" s="4">
         <v>52.99</v>
       </c>
-      <c r="BF29">
+      <c r="BF29" s="4">
         <v>42.68</v>
       </c>
-      <c r="BG29">
+      <c r="BG29" s="4">
         <v>46.13</v>
       </c>
-      <c r="BH29">
+      <c r="BH29" s="4">
         <v>46.12</v>
       </c>
-      <c r="BI29">
+      <c r="BI29" s="4">
         <v>57.17</v>
       </c>
-      <c r="BJ29">
+      <c r="BJ29" s="4">
         <v>48.25</v>
       </c>
-      <c r="BK29">
+      <c r="BK29" s="4">
         <v>40.659999999999997</v>
       </c>
-      <c r="BL29">
+      <c r="BL29" s="4">
         <v>45.46</v>
       </c>
-      <c r="BM29">
+      <c r="BM29" s="4">
         <v>44.67</v>
       </c>
-      <c r="BN29">
+      <c r="BN29" s="4">
         <v>41.19</v>
       </c>
-      <c r="BO29">
+      <c r="BO29" s="4">
         <v>59.69</v>
       </c>
-      <c r="BP29">
+      <c r="BP29" s="4">
         <v>68.7</v>
       </c>
-      <c r="BQ29">
+      <c r="BQ29" s="4">
         <v>35.72</v>
       </c>
-      <c r="BR29">
+      <c r="BR29" s="4">
         <v>65.22</v>
       </c>
-      <c r="BS29">
+      <c r="BS29" s="4">
         <v>50.97</v>
       </c>
-      <c r="BT29">
+      <c r="BT29" s="4">
         <v>47.96</v>
       </c>
-      <c r="BU29">
+      <c r="BU29" s="4">
         <v>48.54</v>
       </c>
-      <c r="BV29">
+      <c r="BV29" s="4">
         <v>44.04</v>
       </c>
-      <c r="BW29">
+      <c r="BW29" s="4">
         <v>45.81</v>
       </c>
-      <c r="BX29">
+      <c r="BX29" s="4">
         <v>48.06</v>
       </c>
-      <c r="BY29">
+      <c r="BY29" s="4">
         <v>74.95</v>
       </c>
-      <c r="BZ29">
+      <c r="BZ29" s="4">
         <v>67.22</v>
       </c>
-      <c r="CA29">
+      <c r="CA29" s="4">
         <v>49.42</v>
       </c>
-      <c r="CB29">
+      <c r="CB29" s="4">
         <v>71.17</v>
       </c>
-      <c r="CC29">
+      <c r="CC29" s="4">
         <v>65.319999999999993</v>
       </c>
-      <c r="CD29">
+      <c r="CD29" s="4">
         <v>39.4</v>
       </c>
-      <c r="CE29">
+      <c r="CE29" s="4">
         <v>48.25</v>
       </c>
-      <c r="CF29">
+      <c r="CF29" s="4">
         <v>58.79</v>
       </c>
-      <c r="CG29">
+      <c r="CG29" s="4">
         <v>57.99</v>
       </c>
-      <c r="CH29">
+      <c r="CH29" s="4">
         <v>32.78</v>
       </c>
     </row>
     <row r="30" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>11</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>40</v>
+      <c r="C30" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="F30" s="4">
+        <v>13.181440129042015</v>
+      </c>
+      <c r="G30" s="4">
+        <v>12.061484150915643</v>
+      </c>
+      <c r="H30" s="4">
+        <v>9.5723743066738241</v>
+      </c>
+      <c r="I30" s="4">
+        <v>14.43298969072165</v>
+      </c>
+      <c r="J30" s="4">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="K30" s="4">
+        <v>6.9588508705128547</v>
+      </c>
+      <c r="L30" s="4">
+        <v>8.9130182324933234</v>
+      </c>
+      <c r="M30" s="4">
+        <v>7.7594568380213387</v>
+      </c>
+      <c r="N30" s="4">
+        <v>9.169562966797308</v>
+      </c>
+      <c r="O30" s="4">
+        <v>7.1065230400957518</v>
+      </c>
+      <c r="P30" s="4">
+        <v>8.7879897473452946</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>14.455782312925171</v>
+      </c>
+      <c r="R30" s="4">
+        <v>14.126476106390022</v>
+      </c>
+      <c r="S30" s="4">
+        <v>6.7988668555240794</v>
+      </c>
+      <c r="T30" s="4">
+        <v>13.82636655948553</v>
+      </c>
+      <c r="U30" s="4">
+        <v>8.5774206470768437</v>
+      </c>
+      <c r="V30" s="4">
+        <v>7.516040329972502</v>
+      </c>
+      <c r="W30" s="4">
+        <v>9.8967297762478488</v>
+      </c>
+      <c r="X30" s="4">
+        <v>9.5475300954753024</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>7.9347904493976777</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>14.03093182698221</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>6.9238377843719086</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>11.432926829268293</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>8.6900547151593184</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>12.758969176351693</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>9.8760455507407023</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>17.723650702374108</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>9.6545805621111356</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>12.868632707774799</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>16.059786929559547</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>11.789857578520451</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>9.4339622641509422</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>12.78187675361114</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>8.8412731433326393</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>9.0645329873312797</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>12.139366230490305</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>8.1570226867193476</v>
+      </c>
+      <c r="AQ30" s="4">
+        <v>10.513216615173361</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>6.4899945916711737</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>6.7613252197430693</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>8.4837058981955291</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>10.444505044995909</v>
+      </c>
+      <c r="AV30" s="4">
+        <v>10.494537090281771</v>
+      </c>
+      <c r="AW30" s="4">
+        <v>12.880084780304884</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>9.4388016825689967</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>11.585392713977358</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>16.219472635432599</v>
+      </c>
+      <c r="BA30" s="4">
+        <v>6.8713189362841334</v>
+      </c>
+      <c r="BB30" s="4">
+        <v>13.156777862660215</v>
+      </c>
+      <c r="BC30" s="4">
+        <v>7.0231082917988221</v>
+      </c>
+      <c r="BD30" s="4">
+        <v>10.31442355681251</v>
+      </c>
+      <c r="BE30" s="4">
+        <v>8.3646112600536178</v>
+      </c>
+      <c r="BF30" s="4">
+        <v>8.4427767354596632</v>
+      </c>
+      <c r="BG30" s="4">
+        <v>8.3369268362800053</v>
+      </c>
+      <c r="BH30" s="4">
+        <v>10.191812195820212</v>
+      </c>
+      <c r="BI30" s="4">
+        <v>15.67886133659513</v>
+      </c>
+      <c r="BJ30" s="4">
+        <v>9.3062605752961076</v>
+      </c>
+      <c r="BK30" s="4">
+        <v>8.5671449989291073</v>
+      </c>
+      <c r="BL30" s="4">
+        <v>10.214811476641129</v>
+      </c>
+      <c r="BM30" s="4">
+        <v>11.761664727930722</v>
+      </c>
+      <c r="BN30" s="4">
+        <v>9.983522341766017</v>
+      </c>
+      <c r="BO30" s="4">
+        <v>10.763209393346379</v>
+      </c>
+      <c r="BP30" s="4">
+        <v>17.885813371010212</v>
+      </c>
+      <c r="BQ30" s="4">
+        <v>8.3297736010252024</v>
+      </c>
+      <c r="BR30" s="4">
+        <v>16.836348061019407</v>
+      </c>
+      <c r="BS30" s="4">
+        <v>10.721715474475916</v>
+      </c>
+      <c r="BT30" s="4">
+        <v>8.4650112866817171</v>
+      </c>
+      <c r="BU30" s="4">
+        <v>11.566617862371888</v>
+      </c>
+      <c r="BV30" s="4">
+        <v>12.638230647709321</v>
+      </c>
+      <c r="BW30" s="4">
+        <v>8.6791429346352054</v>
+      </c>
+      <c r="BX30" s="4">
+        <v>14.457831325301205</v>
+      </c>
+      <c r="BY30" s="4">
+        <v>15.633459664320521</v>
+      </c>
+      <c r="BZ30" s="4">
+        <v>17.450478372187035</v>
+      </c>
+      <c r="CA30" s="4">
+        <v>12.253829321663019</v>
+      </c>
+      <c r="CB30" s="4">
+        <v>11.104256631708822</v>
+      </c>
+      <c r="CC30" s="4">
+        <v>13.630463003028993</v>
+      </c>
+      <c r="CD30" s="4">
+        <v>8.0753701211305522</v>
+      </c>
+      <c r="CE30" s="4">
+        <v>5.2738336713995944</v>
+      </c>
+      <c r="CF30" s="4">
+        <v>25.727826675693976</v>
+      </c>
+      <c r="CG30" s="4">
+        <v>10.91362644215778</v>
+      </c>
+      <c r="CH30" s="4">
+        <v>10.402619919090734</v>
       </c>
     </row>
     <row r="31" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>12</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>26</v>
+      <c r="C31" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="F31" s="4">
+        <v>77.393347107624678</v>
+      </c>
+      <c r="G31" s="4">
+        <v>79.548203983955275</v>
+      </c>
+      <c r="H31" s="4">
+        <v>76.992117592720021</v>
+      </c>
+      <c r="I31" s="4">
+        <v>75.628295166245437</v>
+      </c>
+      <c r="J31" s="4">
+        <v>77.767141385207978</v>
+      </c>
+      <c r="K31" s="4">
+        <v>79.373516543608503</v>
+      </c>
+      <c r="L31" s="4">
+        <v>79.220752643399663</v>
+      </c>
+      <c r="M31" s="4">
+        <v>79.280263871828751</v>
+      </c>
+      <c r="N31" s="4">
+        <v>78.702167555545188</v>
+      </c>
+      <c r="O31" s="4">
+        <v>77.608150843225303</v>
+      </c>
+      <c r="P31" s="4">
+        <v>77.660328058003387</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>77.797557012633007</v>
+      </c>
+      <c r="R31" s="4">
+        <v>77.533077477044131</v>
+      </c>
+      <c r="S31" s="4">
+        <v>79.203055202642787</v>
+      </c>
+      <c r="T31" s="4">
+        <v>78.62460290710105</v>
+      </c>
+      <c r="U31" s="4">
+        <v>77.478026146747311</v>
+      </c>
+      <c r="V31" s="4">
+        <v>77.661051108381741</v>
+      </c>
+      <c r="W31" s="4">
+        <v>78.193147992903405</v>
+      </c>
+      <c r="X31" s="4">
+        <v>78.332851464181644</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>78.848223008888567</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>78.186941997859805</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>77.749917794314939</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>78.490997489144362</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>79.058120459569338</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>77.313220954364127</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>77.549801163286176</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>76.711051999040436</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>80.086678871808672</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>79.860625372074466</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>77.32805810792091</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>77.859069974257451</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>78.704372480623135</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>78.252698557405793</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>78.661352990382014</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>78.816465813439123</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>77.662828349368155</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>77.533212909562266</v>
+      </c>
+      <c r="AQ31" s="4">
+        <v>77.96114762352309</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>77.138429686430982</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>78.187488028689444</v>
+      </c>
+      <c r="AT31" s="4">
+        <v>77.881200992677762</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>78.102152480578894</v>
+      </c>
+      <c r="AV31" s="4">
+        <v>76.879373545747001</v>
+      </c>
+      <c r="AW31" s="4">
+        <v>78.826772396162966</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>77.360328369299566</v>
+      </c>
+      <c r="AY31" s="4">
+        <v>79.116080091745189</v>
+      </c>
+      <c r="AZ31" s="4">
+        <v>80.32109218412208</v>
+      </c>
+      <c r="BA31" s="4">
+        <v>80.482577390096935</v>
+      </c>
+      <c r="BB31" s="4">
+        <v>77.541542780484107</v>
+      </c>
+      <c r="BC31" s="4">
+        <v>77.584226439304828</v>
+      </c>
+      <c r="BD31" s="4">
+        <v>78.359377499961894</v>
+      </c>
+      <c r="BE31" s="4">
+        <v>79.761208847617468</v>
+      </c>
+      <c r="BF31" s="4">
+        <v>79.629470264888639</v>
+      </c>
+      <c r="BG31" s="4">
+        <v>77.503362131296811</v>
+      </c>
+      <c r="BH31" s="4">
+        <v>78.109392639310002</v>
+      </c>
+      <c r="BI31" s="4">
+        <v>77.928727014853379</v>
+      </c>
+      <c r="BJ31" s="4">
+        <v>78.617004391722489</v>
+      </c>
+      <c r="BK31" s="4">
+        <v>77.784142174712613</v>
+      </c>
+      <c r="BL31" s="4">
+        <v>77.073171588588934</v>
+      </c>
+      <c r="BM31" s="4">
+        <v>77.595032237230271</v>
+      </c>
+      <c r="BN31" s="4">
+        <v>79.80470205049086</v>
+      </c>
+      <c r="BO31" s="4">
+        <v>80.504308691183724</v>
+      </c>
+      <c r="BP31" s="4">
+        <v>77.394069066760437</v>
+      </c>
+      <c r="BQ31" s="4">
+        <v>78.042054953308011</v>
+      </c>
+      <c r="BR31" s="4">
+        <v>75.612667028483187</v>
+      </c>
+      <c r="BS31" s="4">
+        <v>77.827906593693996</v>
+      </c>
+      <c r="BT31" s="4">
+        <v>77.888384271043478</v>
+      </c>
+      <c r="BU31" s="4">
+        <v>78.190305990703521</v>
+      </c>
+      <c r="BV31" s="4">
+        <v>77.542133227586973</v>
+      </c>
+      <c r="BW31" s="4">
+        <v>79.028178070555938</v>
+      </c>
+      <c r="BX31" s="4">
+        <v>77.06389989867904</v>
+      </c>
+      <c r="BY31" s="4">
+        <v>78.712916448893964</v>
+      </c>
+      <c r="BZ31" s="4">
+        <v>77.995544346055354</v>
+      </c>
+      <c r="CA31" s="4">
+        <v>77.635968276347967</v>
+      </c>
+      <c r="CB31" s="4">
+        <v>76.572676862499677</v>
+      </c>
+      <c r="CC31" s="4">
+        <v>78.270265340739812</v>
+      </c>
+      <c r="CD31" s="4">
+        <v>78.620867110958557</v>
+      </c>
+      <c r="CE31" s="4">
+        <v>78.547333133413332</v>
+      </c>
+      <c r="CF31" s="4">
+        <v>74.954996257230661</v>
+      </c>
+      <c r="CG31" s="4">
+        <v>78.579223196337296</v>
+      </c>
+      <c r="CH31" s="4">
+        <v>77.748972255693616</v>
       </c>
     </row>
     <row r="32" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5323.229963331587</v>
+      </c>
+      <c r="G32" s="4">
+        <v>7437.1467741935485</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5727.3913894324851</v>
+      </c>
+      <c r="I32" s="4">
+        <v>6719.9940119760477</v>
+      </c>
+      <c r="J32" s="4">
+        <v>8067.41469816273</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2763.2616358446071</v>
+      </c>
+      <c r="L32" s="4">
+        <v>4392.3882164877823</v>
+      </c>
+      <c r="M32" s="4">
+        <v>6300.7342995169083</v>
+      </c>
+      <c r="N32" s="4">
+        <v>4953.537810682179</v>
+      </c>
+      <c r="O32" s="4">
+        <v>6702.4744245524298</v>
+      </c>
+      <c r="P32" s="4">
+        <v>7752.2300884955748</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>5626.8167938931301</v>
+      </c>
+      <c r="R32" s="4">
+        <v>5983.8973607038124</v>
+      </c>
+      <c r="S32" s="4">
+        <v>4329.9439528023595</v>
+      </c>
+      <c r="T32" s="4">
+        <v>6774.4774774774778</v>
+      </c>
+      <c r="U32" s="4">
+        <v>5619.8651529193694</v>
+      </c>
+      <c r="V32" s="4">
+        <v>5237.7800687285226</v>
+      </c>
+      <c r="W32" s="4">
+        <v>6221.3727272727274</v>
+      </c>
+      <c r="X32" s="4">
+        <v>6765.2503912363063</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>5343.8710407239823</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>4239.774141414141</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>4242.5338645418324</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>4052.610229276896</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>5687.3937500000002</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>3743.6647546207778</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>4212.5980221058753</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>5915.9505936422829</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>7001.2180851063831</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>6634.5921052631575</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>5764.06</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>6274.5641547861505</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>3847.127840909091</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>6184.050529747351</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>4112.1114388966735</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>3730.5457953394125</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>4111.1289592760177</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>6788.0545023696686</v>
+      </c>
+      <c r="AQ32" s="4">
+        <v>4469.9089417555369</v>
+      </c>
+      <c r="AR32" s="4">
+        <v>7253.8411214953267</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>7005.7909407665502</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>5589.2770953757226</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>4623.2561007609547</v>
+      </c>
+      <c r="AV32" s="4">
+        <v>6571.9514285714286</v>
+      </c>
+      <c r="AW32" s="4">
+        <v>4313.007246376812</v>
+      </c>
+      <c r="AX32" s="4">
+        <v>5618.677536231884</v>
+      </c>
+      <c r="AY32" s="4">
+        <v>6057.6604892512969</v>
+      </c>
+      <c r="AZ32" s="4">
+        <v>7240.28</v>
+      </c>
+      <c r="BA32" s="4">
+        <v>5374.6854951185496</v>
+      </c>
+      <c r="BB32" s="4">
+        <v>7079.763586956522</v>
+      </c>
+      <c r="BC32" s="4">
+        <v>6993.4417910447764</v>
+      </c>
+      <c r="BD32" s="4">
+        <v>7459.1756373937678</v>
+      </c>
+      <c r="BE32" s="4">
+        <v>6533.6216505894963</v>
+      </c>
+      <c r="BF32" s="4">
+        <v>5971.1523972602736</v>
+      </c>
+      <c r="BG32" s="4">
+        <v>6301.0849056603774</v>
+      </c>
+      <c r="BH32" s="4">
+        <v>4544.4724378881983</v>
+      </c>
+      <c r="BI32" s="4">
+        <v>5786.5463576158936</v>
+      </c>
+      <c r="BJ32" s="4">
+        <v>7343.9752066115707</v>
+      </c>
+      <c r="BK32" s="4">
+        <v>4318.8899480069322</v>
+      </c>
+      <c r="BL32" s="4">
+        <v>6133.431464174455</v>
+      </c>
+      <c r="BM32" s="4">
+        <v>5590.8233944954127</v>
+      </c>
+      <c r="BN32" s="4">
+        <v>4591.5472027972028</v>
+      </c>
+      <c r="BO32" s="4">
+        <v>5328.7927927927931</v>
+      </c>
+      <c r="BP32" s="4">
+        <v>7887.5067285382829</v>
+      </c>
+      <c r="BQ32" s="4">
+        <v>7647.4642857142853</v>
+      </c>
+      <c r="BR32" s="4">
+        <v>4955.4896602658791</v>
+      </c>
+      <c r="BS32" s="4">
+        <v>5403.5872483221474</v>
+      </c>
+      <c r="BT32" s="4">
+        <v>5326.7137476459511</v>
+      </c>
+      <c r="BU32" s="4">
+        <v>7447.7430730478591</v>
+      </c>
+      <c r="BV32" s="4">
+        <v>5311.1904761904761</v>
+      </c>
+      <c r="BW32" s="4">
+        <v>6424.045454545455</v>
+      </c>
+      <c r="BX32" s="4">
+        <v>3527.7423780487807</v>
+      </c>
+      <c r="BY32" s="4">
+        <v>5691.4704000000002</v>
+      </c>
+      <c r="BZ32" s="4">
+        <v>7313.2627345844503</v>
+      </c>
+      <c r="CA32" s="4">
+        <v>8010.7711864406783</v>
+      </c>
+      <c r="CB32" s="4">
+        <v>5043.5163934426228</v>
+      </c>
+      <c r="CC32" s="4">
+        <v>8006.652173913043</v>
+      </c>
+      <c r="CD32" s="4">
+        <v>7299.6</v>
+      </c>
+      <c r="CE32" s="4">
+        <v>6613.25</v>
+      </c>
+      <c r="CF32" s="4">
+        <v>6055.9296482412065</v>
+      </c>
+      <c r="CG32" s="4">
+        <v>6976.2458745874592</v>
+      </c>
+      <c r="CH32" s="4">
+        <v>4961.2833333333338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>14</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>28</v>
+      <c r="C33" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F33" s="4">
+        <v>68.47</v>
+      </c>
+      <c r="G33" s="4">
+        <v>69.13</v>
+      </c>
+      <c r="H33" s="4">
+        <v>80.069999999999993</v>
+      </c>
+      <c r="I33" s="4">
+        <v>66.2</v>
+      </c>
+      <c r="J33" s="4">
+        <v>74.16</v>
+      </c>
+      <c r="K33" s="4">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="L33" s="4">
+        <v>68.45</v>
+      </c>
+      <c r="M33" s="4">
+        <v>80.05</v>
+      </c>
+      <c r="N33" s="4">
+        <v>73.38</v>
+      </c>
+      <c r="O33" s="4">
+        <v>75.44</v>
+      </c>
+      <c r="P33" s="4">
+        <v>74.010000000000005</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>69.28</v>
+      </c>
+      <c r="R33" s="4">
+        <v>70.77</v>
+      </c>
+      <c r="S33" s="4">
+        <v>75.02</v>
+      </c>
+      <c r="T33" s="4">
+        <v>75.56</v>
+      </c>
+      <c r="U33" s="4">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="V33" s="4">
+        <v>70.13</v>
+      </c>
+      <c r="W33" s="4">
+        <v>74.63</v>
+      </c>
+      <c r="X33" s="4">
+        <v>63.07</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>75.64</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>67.16</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>70.38</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>73.59</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>70.13</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>72.53</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>77.22</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>70.14</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>79.38</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>67.08</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>72.63</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="AQ33" s="4">
+        <v>72.56</v>
+      </c>
+      <c r="AR33" s="4">
+        <v>74.03</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>72.02</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>73.31</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>78.03</v>
+      </c>
+      <c r="AV33" s="4">
+        <v>80.760000000000005</v>
+      </c>
+      <c r="AW33" s="4">
+        <v>71.14</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>70.41</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>59.15</v>
+      </c>
+      <c r="BA33" s="4">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="BB33" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="BC33" s="4">
+        <v>73.23</v>
+      </c>
+      <c r="BD33" s="4">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="BE33" s="4">
+        <v>68.62</v>
+      </c>
+      <c r="BF33" s="4">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="BG33" s="4">
+        <v>80.75</v>
+      </c>
+      <c r="BH33" s="4">
+        <v>70.989999999999995</v>
+      </c>
+      <c r="BI33" s="4">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="BJ33" s="4">
+        <v>71.25</v>
+      </c>
+      <c r="BK33" s="4">
+        <v>69.19</v>
+      </c>
+      <c r="BL33" s="4">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="BM33" s="4">
+        <v>71.81</v>
+      </c>
+      <c r="BN33" s="4">
+        <v>71.94</v>
+      </c>
+      <c r="BO33" s="4">
+        <v>59.89</v>
+      </c>
+      <c r="BP33" s="4">
+        <v>71.94</v>
+      </c>
+      <c r="BQ33" s="4">
+        <v>78.77</v>
+      </c>
+      <c r="BR33" s="4">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="BS33" s="4">
+        <v>69.680000000000007</v>
+      </c>
+      <c r="BT33" s="4">
+        <v>69.540000000000006</v>
+      </c>
+      <c r="BU33" s="4">
+        <v>72.78</v>
+      </c>
+      <c r="BV33" s="4">
+        <v>74.290000000000006</v>
+      </c>
+      <c r="BW33" s="4">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="BX33" s="4">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="BY33" s="4">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="BZ33" s="4">
+        <v>69.38</v>
+      </c>
+      <c r="CA33" s="4">
+        <v>73.75</v>
+      </c>
+      <c r="CB33" s="4">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="CC33" s="4">
+        <v>66.64</v>
+      </c>
+      <c r="CD33" s="4">
+        <v>77.91</v>
+      </c>
+      <c r="CE33" s="4">
+        <v>73.64</v>
+      </c>
+      <c r="CF33" s="4">
+        <v>70.17</v>
+      </c>
+      <c r="CG33" s="4">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="CH33" s="4">
+        <v>72.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2">
         <v>15</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>29</v>
+      <c r="C34" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F34" s="4">
+        <v>72.47</v>
+      </c>
+      <c r="G34" s="4">
+        <v>74.62</v>
+      </c>
+      <c r="H34" s="4">
+        <v>87.33</v>
+      </c>
+      <c r="I34" s="4">
+        <v>63.31</v>
+      </c>
+      <c r="J34" s="4">
+        <v>86.51</v>
+      </c>
+      <c r="K34" s="4">
+        <v>68.11</v>
+      </c>
+      <c r="L34" s="4">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="M34" s="4">
+        <v>80.13</v>
+      </c>
+      <c r="N34" s="4">
+        <v>78.03</v>
+      </c>
+      <c r="O34" s="4">
+        <v>83.01</v>
+      </c>
+      <c r="P34" s="4">
+        <v>81.52</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="R34" s="4">
+        <v>72.52</v>
+      </c>
+      <c r="S34" s="4">
+        <v>85.03</v>
+      </c>
+      <c r="T34" s="4">
+        <v>78.84</v>
+      </c>
+      <c r="U34" s="4">
+        <v>77.3</v>
+      </c>
+      <c r="V34" s="4">
+        <v>79.8</v>
+      </c>
+      <c r="W34" s="4">
+        <v>81.77</v>
+      </c>
+      <c r="X34" s="4">
+        <v>78.17</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>81.040000000000006</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>77.63</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>81.44</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>85.12</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>84.75</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>54.55</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>70.86</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>89.13</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>74.66</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>75.13</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>83.08</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>76.97</v>
+      </c>
+      <c r="AR34" s="4">
+        <v>76.150000000000006</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>86.43</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>70.540000000000006</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>82.04</v>
+      </c>
+      <c r="AV34" s="4">
+        <v>85.07</v>
+      </c>
+      <c r="AW34" s="4">
+        <v>77.78</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>85.22</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>85.8</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>68.34</v>
+      </c>
+      <c r="BA34" s="4">
+        <v>71.48</v>
+      </c>
+      <c r="BB34" s="4">
+        <v>61.47</v>
+      </c>
+      <c r="BC34" s="4">
+        <v>85.62</v>
+      </c>
+      <c r="BD34" s="4">
+        <v>84.41</v>
+      </c>
+      <c r="BE34" s="4">
+        <v>81.63</v>
+      </c>
+      <c r="BF34" s="4">
+        <v>86.24</v>
+      </c>
+      <c r="BG34" s="4">
+        <v>84</v>
+      </c>
+      <c r="BH34" s="4">
+        <v>84.31</v>
+      </c>
+      <c r="BI34" s="4">
+        <v>79.41</v>
+      </c>
+      <c r="BJ34" s="4">
+        <v>80.55</v>
+      </c>
+      <c r="BK34" s="4">
+        <v>79.38</v>
+      </c>
+      <c r="BL34" s="4">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="BM34" s="4">
+        <v>82.1</v>
+      </c>
+      <c r="BN34" s="4">
+        <v>82.59</v>
+      </c>
+      <c r="BO34" s="4">
+        <v>63.56</v>
+      </c>
+      <c r="BP34" s="4">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="BQ34" s="4">
+        <v>88.56</v>
+      </c>
+      <c r="BR34" s="4">
+        <v>64.36</v>
+      </c>
+      <c r="BS34" s="4">
+        <v>81.05</v>
+      </c>
+      <c r="BT34" s="4">
+        <v>72.86</v>
+      </c>
+      <c r="BU34" s="4">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="BV34" s="4">
+        <v>75.709999999999994</v>
+      </c>
+      <c r="BW34" s="4">
+        <v>84.79</v>
+      </c>
+      <c r="BX34" s="4">
+        <v>88.09</v>
+      </c>
+      <c r="BY34" s="4">
+        <v>70.14</v>
+      </c>
+      <c r="BZ34" s="4">
+        <v>57.52</v>
+      </c>
+      <c r="CA34" s="4">
+        <v>81.28</v>
+      </c>
+      <c r="CB34" s="4">
+        <v>72.38</v>
+      </c>
+      <c r="CC34" s="4">
+        <v>72.08</v>
+      </c>
+      <c r="CD34" s="4">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="CE34" s="4">
+        <v>76.95</v>
+      </c>
+      <c r="CF34" s="4">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="CG34" s="4">
+        <v>78.39</v>
+      </c>
+      <c r="CH34" s="4">
+        <v>73.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2">
         <v>16</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="4">
+        <v>28.42110996133108</v>
+      </c>
+      <c r="G35" s="4">
+        <v>29.978293538153284</v>
+      </c>
+      <c r="H35" s="4">
+        <v>31.804315896508868</v>
+      </c>
+      <c r="I35" s="4">
+        <v>25.433121553919786</v>
+      </c>
+      <c r="J35" s="4">
+        <v>47.132949106183453</v>
+      </c>
+      <c r="K35" s="4">
+        <v>35.338028397741603</v>
+      </c>
+      <c r="L35" s="4">
+        <v>41.695656851845207</v>
+      </c>
+      <c r="M35" s="4">
+        <v>43.456584960531778</v>
+      </c>
+      <c r="N35" s="4">
+        <v>40.009866798223975</v>
+      </c>
+      <c r="O35" s="4">
+        <v>37.309959664908469</v>
+      </c>
+      <c r="P35" s="4">
+        <v>39.64804896710023</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>28.737554759060135</v>
+      </c>
+      <c r="R35" s="4">
+        <v>30.664412174259002</v>
+      </c>
+      <c r="S35" s="4">
+        <v>39.031274697979001</v>
+      </c>
+      <c r="T35" s="4">
+        <v>42.361111111111107</v>
+      </c>
+      <c r="U35" s="4">
+        <v>35.469888948681572</v>
+      </c>
+      <c r="V35" s="4">
+        <v>41.65358451072737</v>
+      </c>
+      <c r="W35" s="4">
+        <v>39.451857194374327</v>
+      </c>
+      <c r="X35" s="4">
+        <v>34.799125129503857</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>41.458314112618019</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>29.246778885026934</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>42.484909456740446</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>35.570741356831363</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>39.003924753011233</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>27.896389777278358</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>41.20052826651898</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>25.04919773370068</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>47.225244831338408</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>28.757448686824098</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>23.532723434201266</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>41.049294529028394</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>39.888570998343624</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>45.253720848470643</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>27.512770166125893</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>35.36186494283907</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>30.716519193666425</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>36.235570338485616</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>27.728892055575351</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>43.906394810009267</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>37.047471474855612</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>36.0993381328379</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>31.846360250745992</v>
+      </c>
+      <c r="AV35" s="4">
+        <v>37.221595296074121</v>
+      </c>
+      <c r="AW35" s="4">
+        <v>34.01015228426396</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>32.770724097586339</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>27.579960477201197</v>
+      </c>
+      <c r="AZ35" s="4">
+        <v>26.396159610747876</v>
+      </c>
+      <c r="BA35" s="4">
+        <v>38.339122421492874</v>
+      </c>
+      <c r="BB35" s="4">
+        <v>26.906655176465982</v>
+      </c>
+      <c r="BC35" s="4">
+        <v>46.665379789595605</v>
+      </c>
+      <c r="BD35" s="4">
+        <v>31.633289446330814</v>
+      </c>
+      <c r="BE35" s="4">
+        <v>34.939094265947965</v>
+      </c>
+      <c r="BF35" s="4">
+        <v>39.103053435114504</v>
+      </c>
+      <c r="BG35" s="4">
+        <v>37.000482916817582</v>
+      </c>
+      <c r="BH35" s="4">
+        <v>39.158074806972124</v>
+      </c>
+      <c r="BI35" s="4">
+        <v>39.154943882992235</v>
+      </c>
+      <c r="BJ35" s="4">
+        <v>38.851351351351347</v>
+      </c>
+      <c r="BK35" s="4">
+        <v>29.034243263440153</v>
+      </c>
+      <c r="BL35" s="4">
+        <v>32.526657394529437</v>
+      </c>
+      <c r="BM35" s="4">
+        <v>47.910659303064371</v>
+      </c>
+      <c r="BN35" s="4">
+        <v>40.659595881396612</v>
+      </c>
+      <c r="BO35" s="4">
+        <v>53.156146179402</v>
+      </c>
+      <c r="BP35" s="4">
+        <v>28.78004839805492</v>
+      </c>
+      <c r="BQ35" s="4">
+        <v>35.06317689530686</v>
+      </c>
+      <c r="BR35" s="4">
+        <v>30.97328244274809</v>
+      </c>
+      <c r="BS35" s="4">
+        <v>32.641984880790851</v>
+      </c>
+      <c r="BT35" s="4">
+        <v>30.135770234986946</v>
+      </c>
+      <c r="BU35" s="4">
+        <v>30.941545008570248</v>
+      </c>
+      <c r="BV35" s="4">
+        <v>29.114754098360656</v>
+      </c>
+      <c r="BW35" s="4">
+        <v>37.172658677319134</v>
+      </c>
+      <c r="BX35" s="4">
+        <v>33.992848629320619</v>
+      </c>
+      <c r="BY35" s="4">
+        <v>26.945913213009188</v>
+      </c>
+      <c r="BZ35" s="4">
+        <v>26.128453752393689</v>
+      </c>
+      <c r="CA35" s="4">
+        <v>37.524628336020058</v>
+      </c>
+      <c r="CB35" s="4">
+        <v>35.787000783085354</v>
+      </c>
+      <c r="CC35" s="4">
+        <v>31.010352760736197</v>
+      </c>
+      <c r="CD35" s="4">
+        <v>39.80290172460991</v>
+      </c>
+      <c r="CE35" s="4">
+        <v>36.097099621689786</v>
+      </c>
+      <c r="CF35" s="4">
+        <v>30.030909386692695</v>
+      </c>
+      <c r="CG35" s="4">
+        <v>28.636190314790493</v>
+      </c>
+      <c r="CH35" s="4">
+        <v>37.000322372662794</v>
+      </c>
+    </row>
+    <row r="36" spans="1:86" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="B36" s="2">
         <v>17</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>42</v>
+      <c r="C36" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F36" s="4">
+        <v>281.88229999999999</v>
+      </c>
+      <c r="G36" s="4">
+        <v>289.29750000000001</v>
+      </c>
+      <c r="H36" s="4">
+        <v>295.50510000000003</v>
+      </c>
+      <c r="I36" s="4">
+        <v>233.66329999999999</v>
+      </c>
+      <c r="J36" s="4">
+        <v>317.3954</v>
+      </c>
+      <c r="K36" s="4">
+        <v>317.57650000000001</v>
+      </c>
+      <c r="L36" s="4">
+        <v>319.11320000000001</v>
+      </c>
+      <c r="M36" s="4">
+        <v>306.17540000000002</v>
+      </c>
+      <c r="N36" s="4">
+        <v>304.41160000000002</v>
+      </c>
+      <c r="O36" s="4">
+        <v>316.17070000000001</v>
+      </c>
+      <c r="P36" s="4">
+        <v>314.3494</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>292.4855</v>
+      </c>
+      <c r="R36" s="4">
+        <v>263.45650000000001</v>
+      </c>
+      <c r="S36" s="4">
+        <v>318.05919999999998</v>
+      </c>
+      <c r="T36" s="4">
+        <v>328.81119999999999</v>
+      </c>
+      <c r="U36" s="4">
+        <v>310.59429999999998</v>
+      </c>
+      <c r="V36" s="4">
+        <v>319.35419999999999</v>
+      </c>
+      <c r="W36" s="4">
+        <v>306.22120000000001</v>
+      </c>
+      <c r="X36" s="4">
+        <v>313.19119999999998</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>320.08920000000001</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>251.53880000000001</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>303.8426</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>300.45780000000002</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>313.81380000000001</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>275.03879999999998</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>323.26229999999998</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>261.78800000000001</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>315.21100000000001</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>321.98050000000001</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>235.3365</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>292.19880000000001</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>324.62670000000003</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>297.36829999999998</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>298.24639999999999</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>303.88619999999997</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>253.9041</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>314.30070000000001</v>
+      </c>
+      <c r="AQ36" s="4">
+        <v>305.71730000000002</v>
+      </c>
+      <c r="AR36" s="4">
+        <v>310.86450000000002</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>331.27179999999998</v>
+      </c>
+      <c r="AT36" s="4">
+        <v>309.10930000000002</v>
+      </c>
+      <c r="AU36" s="4">
+        <v>299.24180000000001</v>
+      </c>
+      <c r="AV36" s="4">
+        <v>318.5351</v>
+      </c>
+      <c r="AW36" s="4">
+        <v>309.43299999999999</v>
+      </c>
+      <c r="AX36" s="4">
+        <v>302.90159999999997</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>291.7396</v>
+      </c>
+      <c r="AZ36" s="4">
+        <v>241.94380000000001</v>
+      </c>
+      <c r="BA36" s="4">
+        <v>324.50279999999998</v>
+      </c>
+      <c r="BB36" s="4">
+        <v>251.71299999999999</v>
+      </c>
+      <c r="BC36" s="4">
+        <v>310.30990000000003</v>
+      </c>
+      <c r="BD36" s="4">
+        <v>294.31700000000001</v>
+      </c>
+      <c r="BE36" s="4">
+        <v>307.40320000000003</v>
+      </c>
+      <c r="BF36" s="4">
+        <v>306.67090000000002</v>
+      </c>
+      <c r="BG36" s="4">
+        <v>303.41430000000003</v>
+      </c>
+      <c r="BH36" s="4">
+        <v>304.83080000000001</v>
+      </c>
+      <c r="BI36" s="4">
+        <v>238.97229999999999</v>
+      </c>
+      <c r="BJ36" s="4">
+        <v>298.95139999999998</v>
+      </c>
+      <c r="BK36" s="4">
+        <v>306.73340000000002</v>
+      </c>
+      <c r="BL36" s="4">
+        <v>301.02429999999998</v>
+      </c>
+      <c r="BM36" s="4">
+        <v>301.79270000000002</v>
+      </c>
+      <c r="BN36" s="4">
+        <v>312.21409999999997</v>
+      </c>
+      <c r="BO36" s="4">
+        <v>337.99029999999999</v>
+      </c>
+      <c r="BP36" s="4">
+        <v>215.32589999999999</v>
+      </c>
+      <c r="BQ36" s="4">
+        <v>306.89460000000003</v>
+      </c>
+      <c r="BR36" s="4">
+        <v>237.08940000000001</v>
+      </c>
+      <c r="BS36" s="4">
+        <v>300.70400000000001</v>
+      </c>
+      <c r="BT36" s="4">
+        <v>310.3963</v>
+      </c>
+      <c r="BU36" s="4">
+        <v>296.96159999999998</v>
+      </c>
+      <c r="BV36" s="4">
+        <v>307.83980000000003</v>
+      </c>
+      <c r="BW36" s="4">
+        <v>306.96960000000001</v>
+      </c>
+      <c r="BX36" s="4">
+        <v>307.06119999999999</v>
+      </c>
+      <c r="BY36" s="4">
+        <v>253.65790000000001</v>
+      </c>
+      <c r="BZ36" s="4">
+        <v>224.0872</v>
+      </c>
+      <c r="CA36" s="4">
+        <v>298.60590000000002</v>
+      </c>
+      <c r="CB36" s="4">
+        <v>270.09699999999998</v>
+      </c>
+      <c r="CC36" s="4">
+        <v>248.4854</v>
+      </c>
+      <c r="CD36" s="4">
+        <v>316.649</v>
+      </c>
+      <c r="CE36" s="4">
+        <v>327.73050000000001</v>
+      </c>
+      <c r="CF36" s="4">
+        <v>257.91840000000002</v>
+      </c>
+      <c r="CG36" s="4">
+        <v>309.46409999999997</v>
+      </c>
+      <c r="CH36" s="4">
+        <v>298.65899999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B37" s="2">
         <v>18</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>43</v>
+      <c r="C37" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F37" s="4">
+        <v>200.46029950000002</v>
+      </c>
+      <c r="G37" s="4">
+        <v>197.07755383333335</v>
+      </c>
+      <c r="H37" s="4">
+        <v>195.47696683333334</v>
+      </c>
+      <c r="I37" s="4">
+        <v>189.90644499999999</v>
+      </c>
+      <c r="J37" s="4">
+        <v>195.54140816666668</v>
+      </c>
+      <c r="K37" s="4">
+        <v>187.07424549999999</v>
+      </c>
+      <c r="L37" s="4">
+        <v>204.34252483333333</v>
+      </c>
+      <c r="M37" s="4">
+        <v>188.08462799999998</v>
+      </c>
+      <c r="N37" s="4">
+        <v>202.50280699999999</v>
+      </c>
+      <c r="O37" s="4">
+        <v>199.85660616666667</v>
+      </c>
+      <c r="P37" s="4">
+        <v>198.06387183333334</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>193.45630983333331</v>
+      </c>
+      <c r="R37" s="4">
+        <v>193.39617866666666</v>
+      </c>
+      <c r="S37" s="4">
+        <v>197.95761316666668</v>
+      </c>
+      <c r="T37" s="4">
+        <v>203.78322133333336</v>
+      </c>
+      <c r="U37" s="4">
+        <v>202.23747383333333</v>
+      </c>
+      <c r="V37" s="4">
+        <v>199.49182400000004</v>
+      </c>
+      <c r="W37" s="4">
+        <v>192.93234783333332</v>
+      </c>
+      <c r="X37" s="4">
+        <v>200.55404966666666</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>204.0042675</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>195.25195683333334</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>201.19220766666669</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>202.14387616666667</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>197.61115033333337</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>200.36800983333333</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>202.35892133333334</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>197.78606783333336</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>195.250575</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>198.30322449999997</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>178.97144416666666</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>200.34226633333333</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>201.98589816666666</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>201.78819849999999</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>202.03947983333333</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>202.47026333333335</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>189.93823733333332</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>194.966869</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>205.82855950000001</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>199.85370133333333</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>204.40986316666667</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>200.93233283333336</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>202.64419666666666</v>
+      </c>
+      <c r="AV37" s="4">
+        <v>199.83622449999999</v>
+      </c>
+      <c r="AW37" s="4">
+        <v>203.862841</v>
+      </c>
+      <c r="AX37" s="4">
+        <v>196.5054695</v>
+      </c>
+      <c r="AY37" s="4">
+        <v>196.66130966666665</v>
+      </c>
+      <c r="AZ37" s="4">
+        <v>189.03631600000003</v>
+      </c>
+      <c r="BA37" s="4">
+        <v>198.79549549999999</v>
+      </c>
+      <c r="BB37" s="4">
+        <v>191.23554116666665</v>
+      </c>
+      <c r="BC37" s="4">
+        <v>199.89820566666666</v>
+      </c>
+      <c r="BD37" s="4">
+        <v>202.52978250000001</v>
+      </c>
+      <c r="BE37" s="4">
+        <v>196.76052433333334</v>
+      </c>
+      <c r="BF37" s="4">
+        <v>194.47627533333335</v>
+      </c>
+      <c r="BG37" s="4">
+        <v>198.27074766666667</v>
+      </c>
+      <c r="BH37" s="4">
+        <v>201.01755766666668</v>
+      </c>
+      <c r="BI37" s="4">
+        <v>194.51510050000002</v>
+      </c>
+      <c r="BJ37" s="4">
+        <v>196.556433</v>
+      </c>
+      <c r="BK37" s="4">
+        <v>200.270994</v>
+      </c>
+      <c r="BL37" s="4">
+        <v>197.53710033333334</v>
+      </c>
+      <c r="BM37" s="4">
+        <v>198.28292533333331</v>
+      </c>
+      <c r="BN37" s="4">
+        <v>200.77711816666667</v>
+      </c>
+      <c r="BO37" s="4">
+        <v>199.06572800000001</v>
+      </c>
+      <c r="BP37" s="4">
+        <v>190.57926783333335</v>
+      </c>
+      <c r="BQ37" s="4">
+        <v>200.28901400000004</v>
+      </c>
+      <c r="BR37" s="4">
+        <v>192.30280416666668</v>
+      </c>
+      <c r="BS37" s="4">
+        <v>195.63059466666667</v>
+      </c>
+      <c r="BT37" s="4">
+        <v>196.01169866666669</v>
+      </c>
+      <c r="BU37" s="4">
+        <v>199.53142566666668</v>
+      </c>
+      <c r="BV37" s="4">
+        <v>201.98499883333332</v>
+      </c>
+      <c r="BW37" s="4">
+        <v>202.48425816666665</v>
+      </c>
+      <c r="BX37" s="4">
+        <v>198.56764016666668</v>
+      </c>
+      <c r="BY37" s="4">
+        <v>196.82276016666665</v>
+      </c>
+      <c r="BZ37" s="4">
+        <v>182.9391641666667</v>
+      </c>
+      <c r="CA37" s="4">
+        <v>194.54178016666665</v>
+      </c>
+      <c r="CB37" s="4">
+        <v>178.60178683333334</v>
+      </c>
+      <c r="CC37" s="4">
+        <v>191.56306733333329</v>
+      </c>
+      <c r="CD37" s="4">
+        <v>207.94994499999999</v>
+      </c>
+      <c r="CE37" s="4">
+        <v>203.2590415</v>
+      </c>
+      <c r="CF37" s="4">
+        <v>202.76100766666664</v>
+      </c>
+      <c r="CG37" s="4">
+        <v>198.89338733333329</v>
+      </c>
+      <c r="CH37" s="4">
+        <v>195.55840000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2">
         <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F38" s="4">
+        <v>14.213525140629132</v>
+      </c>
+      <c r="G38" s="4">
+        <v>12.288690493987358</v>
+      </c>
+      <c r="H38" s="4">
+        <v>10.780794794410621</v>
+      </c>
+      <c r="I38" s="4">
+        <v>8.6182578085355477</v>
+      </c>
+      <c r="J38" s="4">
+        <v>13.430801579936066</v>
+      </c>
+      <c r="K38" s="4">
+        <v>22.652679588723114</v>
+      </c>
+      <c r="L38" s="4">
+        <v>16.123446771413764</v>
+      </c>
+      <c r="M38" s="4">
+        <v>14.265772164787609</v>
+      </c>
+      <c r="N38" s="4">
+        <v>13.976419652021086</v>
+      </c>
+      <c r="O38" s="4">
+        <v>14.163625455314714</v>
+      </c>
+      <c r="P38" s="4">
+        <v>13.914142472104682</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>11.758198811660826</v>
+      </c>
+      <c r="R38" s="4">
+        <v>11.394036869018606</v>
+      </c>
+      <c r="S38" s="4">
+        <v>14.227685086280822</v>
+      </c>
+      <c r="T38" s="4">
+        <v>13.442557464727781</v>
+      </c>
+      <c r="U38" s="4">
+        <v>14.456413899116512</v>
+      </c>
+      <c r="V38" s="4">
+        <v>15.19165302077049</v>
+      </c>
+      <c r="W38" s="4">
+        <v>11.461420027698045</v>
+      </c>
+      <c r="X38" s="4">
+        <v>10.809140760732525</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>13.61493485773865</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>11.938457653825516</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>14.052937863713158</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>14.382993825363421</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>15.882683721655003</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>13.349763299657191</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>18.209801244750818</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>10.954944928730132</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>12.608439038383546</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>13.771951052703571</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>12.892951750960846</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>12.207087575282014</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>15.620554021257007</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>14.508081931928466</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>17.620682927972886</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>17.738185564307436</v>
+      </c>
+      <c r="AO38" s="4">
+        <v>11.176935944586361</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>11.728026608704139</v>
+      </c>
+      <c r="AQ38" s="4">
+        <v>14.668757700813643</v>
+      </c>
+      <c r="AR38" s="4">
+        <v>13.992481770078715</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>13.893162307779397</v>
+      </c>
+      <c r="AT38" s="4">
+        <v>15.703087810042133</v>
+      </c>
+      <c r="AU38" s="4">
+        <v>12.952636246925945</v>
+      </c>
+      <c r="AV38" s="4">
+        <v>12.059532884295765</v>
+      </c>
+      <c r="AW38" s="4">
+        <v>15.536973733224393</v>
+      </c>
+      <c r="AX38" s="4">
+        <v>11.520546659728206</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>11.149584928740261</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>10.210620429631065</v>
+      </c>
+      <c r="BA38" s="4">
+        <v>16.093524550741115</v>
+      </c>
+      <c r="BB38" s="4">
+        <v>8.9304905347809456</v>
+      </c>
+      <c r="BC38" s="4">
+        <v>11.875830643630151</v>
+      </c>
+      <c r="BD38" s="4">
+        <v>11.755480710638318</v>
+      </c>
+      <c r="BE38" s="4">
+        <v>11.087638590438143</v>
+      </c>
+      <c r="BF38" s="4">
+        <v>13.470960565692947</v>
+      </c>
+      <c r="BG38" s="4">
+        <v>12.53989642352712</v>
+      </c>
+      <c r="BH38" s="4">
+        <v>13.523166945729628</v>
+      </c>
+      <c r="BI38" s="4">
+        <v>12.577120911725151</v>
+      </c>
+      <c r="BJ38" s="4">
+        <v>11.898457443919396</v>
+      </c>
+      <c r="BK38" s="4">
+        <v>13.239006735500922</v>
+      </c>
+      <c r="BL38" s="4">
+        <v>13.294593041874597</v>
+      </c>
+      <c r="BM38" s="4">
+        <v>11.760977063455584</v>
+      </c>
+      <c r="BN38" s="4">
+        <v>15.508336510797601</v>
+      </c>
+      <c r="BO38" s="4">
+        <v>17.934202969890887</v>
+      </c>
+      <c r="BP38" s="4">
+        <v>8.5609910668975004</v>
+      </c>
+      <c r="BQ38" s="4">
+        <v>12.112379062267427</v>
+      </c>
+      <c r="BR38" s="4">
+        <v>9.5479568280026044</v>
+      </c>
+      <c r="BS38" s="4">
+        <v>9.8717756180586846</v>
+      </c>
+      <c r="BT38" s="4">
+        <v>11.776011512807525</v>
+      </c>
+      <c r="BU38" s="4">
+        <v>10.056888049254754</v>
+      </c>
+      <c r="BV38" s="4">
+        <v>12.776513962974583</v>
+      </c>
+      <c r="BW38" s="4">
+        <v>12.622503009981486</v>
+      </c>
+      <c r="BX38" s="4">
+        <v>13.959355832454607</v>
+      </c>
+      <c r="BY38" s="4">
+        <v>12.286211320093948</v>
+      </c>
+      <c r="BZ38" s="4">
+        <v>11.058686188194663</v>
+      </c>
+      <c r="CA38" s="4">
+        <v>10.745318629265043</v>
+      </c>
+      <c r="CB38" s="4">
+        <v>10.49343963839538</v>
+      </c>
+      <c r="CC38" s="4">
+        <v>11.711207911466918</v>
+      </c>
+      <c r="CD38" s="4">
+        <v>15.996585356530824</v>
+      </c>
+      <c r="CE38" s="4">
+        <v>14.611332920954471</v>
+      </c>
+      <c r="CF38" s="4">
+        <v>11.789920512713804</v>
+      </c>
+      <c r="CG38" s="4">
+        <v>13.86773520679349</v>
+      </c>
+      <c r="CH38" s="4">
+        <v>12.14996548066075</v>
+      </c>
+    </row>
+    <row r="39" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B39" s="2">
         <v>20</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F39" s="4">
+        <v>63.85</v>
+      </c>
+      <c r="G39" s="4">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="H39" s="4">
+        <v>88.89</v>
+      </c>
+      <c r="I39" s="4">
+        <v>65.27</v>
+      </c>
+      <c r="J39" s="4">
+        <v>87.53</v>
+      </c>
+      <c r="K39" s="4">
+        <v>57.97</v>
+      </c>
+      <c r="L39" s="4">
+        <v>62.24</v>
+      </c>
+      <c r="M39" s="4">
+        <v>83.15</v>
+      </c>
+      <c r="N39" s="4">
+        <v>70.83</v>
+      </c>
+      <c r="O39" s="4">
+        <v>82.68</v>
+      </c>
+      <c r="P39" s="4">
+        <v>76.8</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="R39" s="4">
+        <v>68.97</v>
+      </c>
+      <c r="S39" s="4">
+        <v>81.47</v>
+      </c>
+      <c r="T39" s="4">
+        <v>74.63</v>
+      </c>
+      <c r="U39" s="4">
+        <v>73.45</v>
+      </c>
+      <c r="V39" s="4">
+        <v>75.53</v>
+      </c>
+      <c r="W39" s="4">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="X39" s="4">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>71.739999999999995</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>66.12</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>70.44</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>75.36</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>73.25</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>57.71</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>83.72</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>84.14</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>48.18</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>64.86</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>86.61</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>72.39</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>61.59</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AO39" s="4">
+        <v>74.63</v>
+      </c>
+      <c r="AP39" s="4">
+        <v>86.06</v>
+      </c>
+      <c r="AQ39" s="4">
+        <v>69.569999999999993</v>
+      </c>
+      <c r="AR39" s="4">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="AS39" s="4">
+        <v>81.94</v>
+      </c>
+      <c r="AT39" s="4">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="AU39" s="4">
+        <v>78.22</v>
+      </c>
+      <c r="AV39" s="4">
+        <v>85.49</v>
+      </c>
+      <c r="AW39" s="4">
+        <v>69.06</v>
+      </c>
+      <c r="AX39" s="4">
+        <v>81.58</v>
+      </c>
+      <c r="AY39" s="4">
+        <v>82.54</v>
+      </c>
+      <c r="AZ39" s="4">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="BA39" s="4">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="BB39" s="4">
+        <v>63.66</v>
+      </c>
+      <c r="BC39" s="4">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="BD39" s="4">
+        <v>81.55</v>
+      </c>
+      <c r="BE39" s="4">
+        <v>77.75</v>
+      </c>
+      <c r="BF39" s="4">
+        <v>84.43</v>
+      </c>
+      <c r="BG39" s="4">
+        <v>80.56</v>
+      </c>
+      <c r="BH39" s="4">
+        <v>80.459999999999994</v>
+      </c>
+      <c r="BI39" s="4">
+        <v>68.78</v>
+      </c>
+      <c r="BJ39" s="4">
+        <v>87.48</v>
+      </c>
+      <c r="BK39" s="4">
+        <v>72.39</v>
+      </c>
+      <c r="BL39" s="4">
+        <v>76.88</v>
+      </c>
+      <c r="BM39" s="4">
+        <v>78.64</v>
+      </c>
+      <c r="BN39" s="4">
+        <v>71.69</v>
+      </c>
+      <c r="BO39" s="4">
+        <v>63.3</v>
+      </c>
+      <c r="BP39" s="4">
+        <v>74.03</v>
+      </c>
+      <c r="BQ39" s="4">
+        <v>84.69</v>
+      </c>
+      <c r="BR39" s="4">
+        <v>66.7</v>
+      </c>
+      <c r="BS39" s="4">
+        <v>82.46</v>
+      </c>
+      <c r="BT39" s="4">
+        <v>72.8</v>
+      </c>
+      <c r="BU39" s="4">
+        <v>81.09</v>
+      </c>
+      <c r="BV39" s="4">
+        <v>72.930000000000007</v>
+      </c>
+      <c r="BW39" s="4">
+        <v>83.01</v>
+      </c>
+      <c r="BX39" s="4">
+        <v>81.67</v>
+      </c>
+      <c r="BY39" s="4">
+        <v>66.28</v>
+      </c>
+      <c r="BZ39" s="4">
+        <v>61.73</v>
+      </c>
+      <c r="CA39" s="4">
+        <v>78.59</v>
+      </c>
+      <c r="CB39" s="4">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="CC39" s="4">
+        <v>77.81</v>
+      </c>
+      <c r="CD39" s="4">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="CE39" s="4">
+        <v>75.72</v>
+      </c>
+      <c r="CF39" s="4">
+        <v>82.02</v>
+      </c>
+      <c r="CG39" s="4">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="CH39" s="4">
+        <v>52.77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2">
         <v>21</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2">
         <v>22</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2">
         <v>23</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2">
         <v>24</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2">
         <v>25</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B45" s="2">
         <v>26</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B46" s="2">
         <v>27</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B47" s="2">
         <v>28</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B48" s="2">
         <v>29</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B49" s="2">
         <v>30</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B50" s="2">
         <v>31</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
   </sheetData>
@@ -8722,903 +11095,1389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A81" sqref="A1:C81"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection sqref="A1:E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5427.7249439530478</v>
+        <v>28.42110996133108</v>
       </c>
       <c r="B1">
-        <v>34.06</v>
+        <v>281.88229999999999</v>
       </c>
       <c r="C1">
-        <v>59.77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200.46029950000002</v>
+      </c>
+      <c r="D1">
+        <v>14.213525140629132</v>
+      </c>
+      <c r="E1">
+        <v>63.85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1542.6664547910377</v>
+        <v>29.978293538153284</v>
       </c>
       <c r="B2">
-        <v>16.27</v>
+        <v>289.29750000000001</v>
       </c>
       <c r="C2">
-        <v>74.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197.07755383333335</v>
+      </c>
+      <c r="D2">
+        <v>12.288690493987358</v>
+      </c>
+      <c r="E2">
+        <v>69.010000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4062.0552089482721</v>
+        <v>31.804315896508868</v>
       </c>
       <c r="B3">
-        <v>29.73</v>
+        <v>295.50510000000003</v>
       </c>
       <c r="C3">
-        <v>44.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195.47696683333334</v>
+      </c>
+      <c r="D3">
+        <v>10.780794794410621</v>
+      </c>
+      <c r="E3">
+        <v>88.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>842.04682992528683</v>
+        <v>25.433121553919786</v>
       </c>
       <c r="B4">
-        <v>22.56</v>
+        <v>233.66329999999999</v>
       </c>
       <c r="C4">
-        <v>73.540000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189.90644499999999</v>
+      </c>
+      <c r="D4">
+        <v>8.6182578085355477</v>
+      </c>
+      <c r="E4">
+        <v>65.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3120.9798920826433</v>
+        <v>47.132949106183453</v>
       </c>
       <c r="B5">
-        <v>34.79</v>
+        <v>317.3954</v>
       </c>
       <c r="C5">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195.54140816666668</v>
+      </c>
+      <c r="D5">
+        <v>13.430801579936066</v>
+      </c>
+      <c r="E5">
+        <v>87.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11461.948104803196</v>
+        <v>35.338028397741603</v>
       </c>
       <c r="B6">
-        <v>58.91</v>
+        <v>317.57650000000001</v>
       </c>
       <c r="C6">
-        <v>42.38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>187.07424549999999</v>
+      </c>
+      <c r="D6">
+        <v>22.652679588723114</v>
+      </c>
+      <c r="E6">
+        <v>57.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8352.9242378840281</v>
+        <v>41.695656851845207</v>
       </c>
       <c r="B7">
-        <v>45.53</v>
+        <v>319.11320000000001</v>
       </c>
       <c r="C7">
-        <v>48.66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204.34252483333333</v>
+      </c>
+      <c r="D7">
+        <v>16.123446771413764</v>
+      </c>
+      <c r="E7">
+        <v>62.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3736.5300517462902</v>
+        <v>43.456584960531778</v>
       </c>
       <c r="B8">
-        <v>37.72</v>
+        <v>306.17540000000002</v>
       </c>
       <c r="C8">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188.08462799999998</v>
+      </c>
+      <c r="D8">
+        <v>14.265772164787609</v>
+      </c>
+      <c r="E8">
+        <v>83.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6738.8095153549157</v>
+        <v>40.009866798223975</v>
       </c>
       <c r="B9">
-        <v>34.909999999999997</v>
+        <v>304.41160000000002</v>
       </c>
       <c r="C9">
-        <v>49.94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.50280699999999</v>
+      </c>
+      <c r="D9">
+        <v>13.976419652021086</v>
+      </c>
+      <c r="E9">
+        <v>70.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6583.0712909473641</v>
+        <v>37.309959664908469</v>
       </c>
       <c r="B10">
-        <v>29.66</v>
+        <v>316.17070000000001</v>
       </c>
       <c r="C10">
-        <v>45.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199.85660616666667</v>
+      </c>
+      <c r="D10">
+        <v>14.163625455314714</v>
+      </c>
+      <c r="E10">
+        <v>82.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3175.7818268429201</v>
+        <v>39.64804896710023</v>
       </c>
       <c r="B11">
-        <v>41.44</v>
+        <v>314.3494</v>
       </c>
       <c r="C11">
-        <v>40.479999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198.06387183333334</v>
+      </c>
+      <c r="D11">
+        <v>13.914142472104682</v>
+      </c>
+      <c r="E11">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1579.5112379190959</v>
+        <v>28.737554759060135</v>
       </c>
       <c r="B12">
-        <v>23.35</v>
+        <v>292.4855</v>
       </c>
       <c r="C12">
-        <v>55.87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193.45630983333331</v>
+      </c>
+      <c r="D12">
+        <v>11.758198811660826</v>
+      </c>
+      <c r="E12">
+        <v>68.260000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>838.50507214006143</v>
+        <v>30.664412174259002</v>
       </c>
       <c r="B13">
-        <v>26.51</v>
+        <v>263.45650000000001</v>
       </c>
       <c r="C13">
-        <v>65.81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193.39617866666666</v>
+      </c>
+      <c r="D13">
+        <v>11.394036869018606</v>
+      </c>
+      <c r="E13">
+        <v>68.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4500.0087784289417</v>
+        <v>39.031274697979001</v>
       </c>
       <c r="B14">
-        <v>44.59</v>
+        <v>318.05919999999998</v>
       </c>
       <c r="C14">
-        <v>38.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197.95761316666668</v>
+      </c>
+      <c r="D14">
+        <v>14.227685086280822</v>
+      </c>
+      <c r="E14">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5212.1775957773125</v>
+        <v>42.361111111111107</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>328.81119999999999</v>
       </c>
       <c r="C15">
-        <v>46.56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203.78322133333336</v>
+      </c>
+      <c r="D15">
+        <v>13.442557464727781</v>
+      </c>
+      <c r="E15">
+        <v>74.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6326.0115822594771</v>
+        <v>35.469888948681572</v>
       </c>
       <c r="B16">
-        <v>42.79</v>
+        <v>310.59429999999998</v>
       </c>
       <c r="C16">
-        <v>46.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.23747383333333</v>
+      </c>
+      <c r="D16">
+        <v>14.456413899116512</v>
+      </c>
+      <c r="E16">
+        <v>73.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5232.2671408194765</v>
+        <v>41.65358451072737</v>
       </c>
       <c r="B17">
-        <v>31.35</v>
+        <v>319.35419999999999</v>
       </c>
       <c r="C17">
-        <v>46.16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199.49182400000004</v>
+      </c>
+      <c r="D17">
+        <v>15.19165302077049</v>
+      </c>
+      <c r="E17">
+        <v>75.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>3195.6959956415144</v>
+        <v>39.451857194374327</v>
       </c>
       <c r="B18">
-        <v>39.1</v>
+        <v>306.22120000000001</v>
       </c>
       <c r="C18">
-        <v>42.39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192.93234783333332</v>
+      </c>
+      <c r="D18">
+        <v>11.461420027698045</v>
+      </c>
+      <c r="E18">
+        <v>79.569999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3821.5450855430372</v>
+        <v>34.799125129503857</v>
       </c>
       <c r="B19">
-        <v>30.68</v>
+        <v>313.19119999999998</v>
       </c>
       <c r="C19">
-        <v>53.33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200.55404966666666</v>
+      </c>
+      <c r="D19">
+        <v>10.809140760732525</v>
+      </c>
+      <c r="E19">
+        <v>69.150000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7142.2611627669357</v>
+        <v>41.458314112618019</v>
       </c>
       <c r="B20">
-        <v>39.03</v>
+        <v>320.08920000000001</v>
       </c>
       <c r="C20">
-        <v>44.46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204.0042675</v>
+      </c>
+      <c r="D20">
+        <v>13.61493485773865</v>
+      </c>
+      <c r="E20">
+        <v>71.739999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1509.5874861166155</v>
+        <v>29.246778885026934</v>
       </c>
       <c r="B21">
-        <v>28.78</v>
+        <v>251.53880000000001</v>
       </c>
       <c r="C21">
-        <v>72.44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195.25195683333334</v>
+      </c>
+      <c r="D21">
+        <v>11.938457653825516</v>
+      </c>
+      <c r="E21">
+        <v>66.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6230.3237733586493</v>
+        <v>42.484909456740446</v>
       </c>
       <c r="B22">
-        <v>39.35</v>
+        <v>303.8426</v>
       </c>
       <c r="C22">
-        <v>47.43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201.19220766666669</v>
+      </c>
+      <c r="D22">
+        <v>14.052937863713158</v>
+      </c>
+      <c r="E22">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3475.9324346421031</v>
+        <v>35.570741356831363</v>
       </c>
       <c r="B23">
-        <v>32.380000000000003</v>
+        <v>300.45780000000002</v>
       </c>
       <c r="C23">
-        <v>54.68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.14387616666667</v>
+      </c>
+      <c r="D23">
+        <v>14.382993825363421</v>
+      </c>
+      <c r="E23">
+        <v>70.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4626.6427584479925</v>
+        <v>39.003924753011233</v>
       </c>
       <c r="B24">
-        <v>34.159999999999997</v>
+        <v>313.81380000000001</v>
       </c>
       <c r="C24">
-        <v>44.59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197.61115033333337</v>
+      </c>
+      <c r="D24">
+        <v>15.882683721655003</v>
+      </c>
+      <c r="E24">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1800.6235916784572</v>
+        <v>27.896389777278358</v>
       </c>
       <c r="B25">
-        <v>30.77</v>
+        <v>275.03879999999998</v>
       </c>
       <c r="C25">
-        <v>50.29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200.36800983333333</v>
+      </c>
+      <c r="D25">
+        <v>13.349763299657191</v>
+      </c>
+      <c r="E25">
+        <v>73.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6569.7902304510535</v>
+        <v>41.20052826651898</v>
       </c>
       <c r="B26">
-        <v>42.27</v>
+        <v>323.26229999999998</v>
       </c>
       <c r="C26">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.35892133333334</v>
+      </c>
+      <c r="D26">
+        <v>18.209801244750818</v>
+      </c>
+      <c r="E26">
+        <v>57.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2467.5601466234375</v>
+        <v>25.04919773370068</v>
       </c>
       <c r="B27">
-        <v>27.94</v>
+        <v>261.78800000000001</v>
       </c>
       <c r="C27">
-        <v>58.67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197.78606783333336</v>
+      </c>
+      <c r="D27">
+        <v>10.954944928730132</v>
+      </c>
+      <c r="E27">
+        <v>80.349999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4701.2749311602292</v>
+        <v>47.225244831338408</v>
       </c>
       <c r="B28">
-        <v>29.71</v>
+        <v>315.21100000000001</v>
       </c>
       <c r="C28">
-        <v>47.26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195.250575</v>
+      </c>
+      <c r="D28">
+        <v>12.608439038383546</v>
+      </c>
+      <c r="E28">
+        <v>83.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2668.4659692660894</v>
+        <v>28.757448686824098</v>
       </c>
       <c r="B29">
-        <v>33.36</v>
+        <v>321.98050000000001</v>
       </c>
       <c r="C29">
-        <v>43.55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198.30322449999997</v>
+      </c>
+      <c r="D29">
+        <v>13.771951052703571</v>
+      </c>
+      <c r="E29">
+        <v>84.14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>689.35925324028995</v>
+        <v>23.532723434201266</v>
       </c>
       <c r="B30">
-        <v>23.75</v>
+        <v>235.3365</v>
       </c>
       <c r="C30">
-        <v>61.91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178.97144416666666</v>
+      </c>
+      <c r="D30">
+        <v>12.892951750960846</v>
+      </c>
+      <c r="E30">
+        <v>48.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4695.4408238783662</v>
+        <v>41.049294529028394</v>
       </c>
       <c r="B31">
-        <v>30.09</v>
+        <v>292.19880000000001</v>
       </c>
       <c r="C31">
-        <v>53.71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200.34226633333333</v>
+      </c>
+      <c r="D31">
+        <v>12.207087575282014</v>
+      </c>
+      <c r="E31">
+        <v>64.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6220.8462677300731</v>
+        <v>39.888570998343624</v>
       </c>
       <c r="B32">
-        <v>28.11</v>
+        <v>324.62670000000003</v>
       </c>
       <c r="C32">
-        <v>33.520000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201.98589816666666</v>
+      </c>
+      <c r="D32">
+        <v>15.620554021257007</v>
+      </c>
+      <c r="E32">
+        <v>86.61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5218.2908719326333</v>
+        <v>45.253720848470643</v>
       </c>
       <c r="B33">
-        <v>29.64</v>
+        <v>297.36829999999998</v>
       </c>
       <c r="C33">
-        <v>62.75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201.78819849999999</v>
+      </c>
+      <c r="D33">
+        <v>14.508081931928466</v>
+      </c>
+      <c r="E33">
+        <v>72.39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>18131.025015062234</v>
+        <v>27.512770166125893</v>
       </c>
       <c r="B34">
-        <v>56.18</v>
+        <v>298.24639999999999</v>
       </c>
       <c r="C34">
-        <v>45.41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.03947983333333</v>
+      </c>
+      <c r="D34">
+        <v>17.620682927972886</v>
+      </c>
+      <c r="E34">
+        <v>61.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10345.53491891219</v>
+        <v>35.36186494283907</v>
       </c>
       <c r="B35">
-        <v>49.8</v>
+        <v>303.88619999999997</v>
       </c>
       <c r="C35">
-        <v>48.63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.47026333333335</v>
+      </c>
+      <c r="D35">
+        <v>17.738185564307436</v>
+      </c>
+      <c r="E35">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2015.937746655603</v>
+        <v>30.716519193666425</v>
       </c>
       <c r="B36">
-        <v>28.01</v>
+        <v>253.9041</v>
       </c>
       <c r="C36">
-        <v>66.64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189.93823733333332</v>
+      </c>
+      <c r="D36">
+        <v>11.176935944586361</v>
+      </c>
+      <c r="E36">
+        <v>74.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3555.4679092562624</v>
+        <v>36.235570338485616</v>
       </c>
       <c r="B37">
-        <v>38.53</v>
+        <v>314.30070000000001</v>
       </c>
       <c r="C37">
-        <v>47.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194.966869</v>
+      </c>
+      <c r="D37">
+        <v>11.728026608704139</v>
+      </c>
+      <c r="E37">
+        <v>86.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5045.0363587965903</v>
+        <v>27.728892055575351</v>
       </c>
       <c r="B38">
-        <v>38.24</v>
+        <v>305.71730000000002</v>
       </c>
       <c r="C38">
-        <v>42.72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205.82855950000001</v>
+      </c>
+      <c r="D38">
+        <v>14.668757700813643</v>
+      </c>
+      <c r="E38">
+        <v>69.569999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>6600.1664130709905</v>
+        <v>43.906394810009267</v>
       </c>
       <c r="B39">
-        <v>45.42</v>
+        <v>310.86450000000002</v>
       </c>
       <c r="C39">
-        <v>45.11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199.85370133333333</v>
+      </c>
+      <c r="D39">
+        <v>13.992481770078715</v>
+      </c>
+      <c r="E39">
+        <v>75.760000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5867.1303551302835</v>
+        <v>37.047471474855612</v>
       </c>
       <c r="B40">
-        <v>37.51</v>
+        <v>331.27179999999998</v>
       </c>
       <c r="C40">
-        <v>47.05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204.40986316666667</v>
+      </c>
+      <c r="D40">
+        <v>13.893162307779397</v>
+      </c>
+      <c r="E40">
+        <v>81.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5489.0221993911055</v>
+        <v>36.0993381328379</v>
       </c>
       <c r="B41">
-        <v>53.47</v>
+        <v>309.10930000000002</v>
       </c>
       <c r="C41">
-        <v>43.89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200.93233283333336</v>
+      </c>
+      <c r="D41">
+        <v>15.703087810042133</v>
+      </c>
+      <c r="E41">
+        <v>66.540000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4062.0853107537528</v>
+        <v>31.846360250745992</v>
       </c>
       <c r="B42">
-        <v>37.340000000000003</v>
+        <v>299.24180000000001</v>
       </c>
       <c r="C42">
-        <v>45.27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.64419666666666</v>
+      </c>
+      <c r="D42">
+        <v>12.952636246925945</v>
+      </c>
+      <c r="E42">
+        <v>78.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>3350.8592363976109</v>
+        <v>37.221595296074121</v>
       </c>
       <c r="B43">
-        <v>38.6</v>
+        <v>318.5351</v>
       </c>
       <c r="C43">
-        <v>34.53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199.83622449999999</v>
+      </c>
+      <c r="D43">
+        <v>12.059532884295765</v>
+      </c>
+      <c r="E43">
+        <v>85.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3430.4536192862265</v>
+        <v>34.01015228426396</v>
       </c>
       <c r="B44">
-        <v>28.86</v>
+        <v>309.43299999999999</v>
       </c>
       <c r="C44">
-        <v>54.51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203.862841</v>
+      </c>
+      <c r="D44">
+        <v>15.536973733224393</v>
+      </c>
+      <c r="E44">
+        <v>69.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3764.8308910340997</v>
+        <v>32.770724097586339</v>
       </c>
       <c r="B45">
-        <v>28.43</v>
+        <v>302.90159999999997</v>
       </c>
       <c r="C45">
-        <v>44.61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196.5054695</v>
+      </c>
+      <c r="D45">
+        <v>11.520546659728206</v>
+      </c>
+      <c r="E45">
+        <v>81.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2336.1278486150163</v>
+        <v>27.579960477201197</v>
       </c>
       <c r="B46">
-        <v>26.23</v>
+        <v>291.7396</v>
       </c>
       <c r="C46">
-        <v>55.78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196.66130966666665</v>
+      </c>
+      <c r="D46">
+        <v>11.149584928740261</v>
+      </c>
+      <c r="E46">
+        <v>82.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1030.2282901307485</v>
+        <v>26.396159610747876</v>
       </c>
       <c r="B47">
-        <v>23.41</v>
+        <v>241.94380000000001</v>
       </c>
       <c r="C47">
-        <v>66.709999999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189.03631600000003</v>
+      </c>
+      <c r="D47">
+        <v>10.210620429631065</v>
+      </c>
+      <c r="E47">
+        <v>67.290000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10527.433485856487</v>
+        <v>38.339122421492874</v>
       </c>
       <c r="B48">
-        <v>38.94</v>
+        <v>324.50279999999998</v>
       </c>
       <c r="C48">
-        <v>51.31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198.79549549999999</v>
+      </c>
+      <c r="D48">
+        <v>16.093524550741115</v>
+      </c>
+      <c r="E48">
+        <v>66.790000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>759.0584996692736</v>
+        <v>26.906655176465982</v>
       </c>
       <c r="B49">
-        <v>22.61</v>
+        <v>251.71299999999999</v>
       </c>
       <c r="C49">
-        <v>69.290000000000006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191.23554116666665</v>
+      </c>
+      <c r="D49">
+        <v>8.9304905347809456</v>
+      </c>
+      <c r="E49">
+        <v>63.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>6201.3973799126634</v>
+        <v>46.665379789595605</v>
       </c>
       <c r="B50">
-        <v>36.65</v>
+        <v>310.30990000000003</v>
       </c>
       <c r="C50">
-        <v>45.18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199.89820566666666</v>
+      </c>
+      <c r="D50">
+        <v>11.875830643630151</v>
+      </c>
+      <c r="E50">
+        <v>76.849999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2927.8855939842629</v>
+        <v>31.633289446330814</v>
       </c>
       <c r="B51">
-        <v>27.95</v>
+        <v>294.31700000000001</v>
       </c>
       <c r="C51">
-        <v>50.46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.52978250000001</v>
+      </c>
+      <c r="D51">
+        <v>11.755480710638318</v>
+      </c>
+      <c r="E51">
+        <v>81.55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3464.4924254557704</v>
+        <v>34.939094265947965</v>
       </c>
       <c r="B52">
-        <v>29.89</v>
+        <v>307.40320000000003</v>
       </c>
       <c r="C52">
-        <v>52.99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196.76052433333334</v>
+      </c>
+      <c r="D52">
+        <v>11.087638590438143</v>
+      </c>
+      <c r="E52">
+        <v>77.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3899.8844680831708</v>
+        <v>39.103053435114504</v>
       </c>
       <c r="B53">
-        <v>37.700000000000003</v>
+        <v>306.67090000000002</v>
       </c>
       <c r="C53">
-        <v>42.68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194.47627533333335</v>
+      </c>
+      <c r="D53">
+        <v>13.470960565692947</v>
+      </c>
+      <c r="E53">
+        <v>84.43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3801.6491799130699</v>
+        <v>37.000482916817582</v>
       </c>
       <c r="B54">
-        <v>38.479999999999997</v>
+        <v>303.41430000000003</v>
       </c>
       <c r="C54">
-        <v>46.13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198.27074766666667</v>
+      </c>
+      <c r="D54">
+        <v>12.53989642352712</v>
+      </c>
+      <c r="E54">
+        <v>80.56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>4097.3496620836877</v>
+        <v>39.158074806972124</v>
       </c>
       <c r="B55">
-        <v>36.14</v>
+        <v>304.83080000000001</v>
       </c>
       <c r="C55">
-        <v>46.12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201.01755766666668</v>
+      </c>
+      <c r="D55">
+        <v>13.523166945729628</v>
+      </c>
+      <c r="E55">
+        <v>80.459999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1161.9394030769618</v>
+        <v>39.154943882992235</v>
       </c>
       <c r="B56">
-        <v>36.25</v>
+        <v>238.97229999999999</v>
       </c>
       <c r="C56">
-        <v>57.17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194.51510050000002</v>
+      </c>
+      <c r="D56">
+        <v>12.577120911725151</v>
+      </c>
+      <c r="E56">
+        <v>68.78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4370.5788017171408</v>
+        <v>38.851351351351347</v>
       </c>
       <c r="B57">
-        <v>39.549999999999997</v>
+        <v>298.95139999999998</v>
       </c>
       <c r="C57">
-        <v>48.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196.556433</v>
+      </c>
+      <c r="D57">
+        <v>11.898457443919396</v>
+      </c>
+      <c r="E57">
+        <v>87.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>4718.8902226872688</v>
+        <v>29.034243263440153</v>
       </c>
       <c r="B58">
-        <v>33.47</v>
+        <v>306.73340000000002</v>
       </c>
       <c r="C58">
-        <v>40.659999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200.270994</v>
+      </c>
+      <c r="D58">
+        <v>13.239006735500922</v>
+      </c>
+      <c r="E58">
+        <v>72.39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5364.5123366110383</v>
+        <v>32.526657394529437</v>
       </c>
       <c r="B59">
-        <v>51.56</v>
+        <v>301.02429999999998</v>
       </c>
       <c r="C59">
-        <v>45.46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197.53710033333334</v>
+      </c>
+      <c r="D59">
+        <v>13.294593041874597</v>
+      </c>
+      <c r="E59">
+        <v>76.88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2259.5999464811348</v>
+        <v>47.910659303064371</v>
       </c>
       <c r="B60">
-        <v>29.66</v>
+        <v>301.79270000000002</v>
       </c>
       <c r="C60">
-        <v>44.67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198.28292533333331</v>
+      </c>
+      <c r="D60">
+        <v>11.760977063455584</v>
+      </c>
+      <c r="E60">
+        <v>78.64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5825.6740507732311</v>
+        <v>40.659595881396612</v>
       </c>
       <c r="B61">
-        <v>36.020000000000003</v>
+        <v>312.21409999999997</v>
       </c>
       <c r="C61">
-        <v>41.19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200.77711816666667</v>
+      </c>
+      <c r="D61">
+        <v>15.508336510797601</v>
+      </c>
+      <c r="E61">
+        <v>71.69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>7184.4510961896285</v>
+        <v>53.156146179402</v>
       </c>
       <c r="B62">
-        <v>36.07</v>
+        <v>337.99029999999999</v>
       </c>
       <c r="C62">
-        <v>59.69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199.06572800000001</v>
+      </c>
+      <c r="D62">
+        <v>17.934202969890887</v>
+      </c>
+      <c r="E62">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>833.3702666840768</v>
+        <v>28.78004839805492</v>
       </c>
       <c r="B63">
-        <v>21.42</v>
+        <v>215.32589999999999</v>
       </c>
       <c r="C63">
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190.57926783333335</v>
+      </c>
+      <c r="D63">
+        <v>8.5609910668975004</v>
+      </c>
+      <c r="E63">
+        <v>74.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>7665.9579521488931</v>
+        <v>35.06317689530686</v>
       </c>
       <c r="B64">
-        <v>31.06</v>
+        <v>306.89460000000003</v>
       </c>
       <c r="C64">
-        <v>35.72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200.28901400000004</v>
+      </c>
+      <c r="D64">
+        <v>12.112379062267427</v>
+      </c>
+      <c r="E64">
+        <v>84.69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1128.7568790521232</v>
+        <v>30.97328244274809</v>
       </c>
       <c r="B65">
-        <v>21.29</v>
+        <v>237.08940000000001</v>
       </c>
       <c r="C65">
-        <v>65.22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192.30280416666668</v>
+      </c>
+      <c r="D65">
+        <v>9.5479568280026044</v>
+      </c>
+      <c r="E65">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3805.8789532088035</v>
+        <v>32.641984880790851</v>
       </c>
       <c r="B66">
-        <v>25.96</v>
+        <v>300.70400000000001</v>
       </c>
       <c r="C66">
-        <v>50.97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195.63059466666667</v>
+      </c>
+      <c r="D66">
+        <v>9.8717756180586846</v>
+      </c>
+      <c r="E66">
+        <v>82.46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7028.7359969004465</v>
+        <v>30.135770234986946</v>
       </c>
       <c r="B67">
-        <v>49.95</v>
+        <v>310.3963</v>
       </c>
       <c r="C67">
-        <v>47.96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196.01169866666669</v>
+      </c>
+      <c r="D67">
+        <v>11.776011512807525</v>
+      </c>
+      <c r="E67">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5611.9864047552128</v>
+        <v>30.941545008570248</v>
       </c>
       <c r="B68">
-        <v>32.97</v>
+        <v>296.96159999999998</v>
       </c>
       <c r="C68">
-        <v>48.54</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199.53142566666668</v>
+      </c>
+      <c r="D68">
+        <v>10.056888049254754</v>
+      </c>
+      <c r="E68">
+        <v>81.09</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2097.1875891671939</v>
+        <v>29.114754098360656</v>
       </c>
       <c r="B69">
-        <v>38.92</v>
+        <v>307.83980000000003</v>
       </c>
       <c r="C69">
-        <v>44.04</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201.98499883333332</v>
+      </c>
+      <c r="D69">
+        <v>12.776513962974583</v>
+      </c>
+      <c r="E69">
+        <v>72.930000000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4864.4627686572749</v>
+        <v>37.172658677319134</v>
       </c>
       <c r="B70">
-        <v>34.61</v>
+        <v>306.96960000000001</v>
       </c>
       <c r="C70">
-        <v>45.81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.48425816666665</v>
+      </c>
+      <c r="D70">
+        <v>12.622503009981486</v>
+      </c>
+      <c r="E70">
+        <v>83.01</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2890.1590603927816</v>
+        <v>33.992848629320619</v>
       </c>
       <c r="B71">
-        <v>37.46</v>
+        <v>307.06119999999999</v>
       </c>
       <c r="C71">
-        <v>48.06</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198.56764016666668</v>
+      </c>
+      <c r="D71">
+        <v>13.959355832454607</v>
+      </c>
+      <c r="E71">
+        <v>81.67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1594.4317808867759</v>
+        <v>26.945913213009188</v>
       </c>
       <c r="B72">
-        <v>28.74</v>
+        <v>253.65790000000001</v>
       </c>
       <c r="C72">
-        <v>74.95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196.82276016666665</v>
+      </c>
+      <c r="D72">
+        <v>12.286211320093948</v>
+      </c>
+      <c r="E72">
+        <v>66.28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>616.21462432970804</v>
+        <v>26.128453752393689</v>
       </c>
       <c r="B73">
-        <v>23.46</v>
+        <v>224.0872</v>
       </c>
       <c r="C73">
-        <v>67.22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182.9391641666667</v>
+      </c>
+      <c r="D73">
+        <v>11.058686188194663</v>
+      </c>
+      <c r="E73">
+        <v>61.73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5818.0618251894093</v>
+        <v>37.524628336020058</v>
       </c>
       <c r="B74">
-        <v>50.61</v>
+        <v>298.60590000000002</v>
       </c>
       <c r="C74">
-        <v>49.42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194.54178016666665</v>
+      </c>
+      <c r="D74">
+        <v>10.745318629265043</v>
+      </c>
+      <c r="E74">
+        <v>78.59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2127.835808310766</v>
+        <v>35.787000783085354</v>
       </c>
       <c r="B75">
-        <v>18.23</v>
+        <v>270.09699999999998</v>
       </c>
       <c r="C75">
-        <v>71.17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178.60178683333334</v>
+      </c>
+      <c r="D75">
+        <v>10.49343963839538</v>
+      </c>
+      <c r="E75">
+        <v>72.760000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2216.6763860540677</v>
+        <v>31.010352760736197</v>
       </c>
       <c r="B76">
-        <v>30</v>
+        <v>248.4854</v>
       </c>
       <c r="C76">
-        <v>65.319999999999993</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191.56306733333329</v>
+      </c>
+      <c r="D76">
+        <v>11.711207911466918</v>
+      </c>
+      <c r="E76">
+        <v>77.81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>7456.505999629162</v>
+        <v>39.80290172460991</v>
       </c>
       <c r="B77">
-        <v>38.799999999999997</v>
+        <v>316.649</v>
       </c>
       <c r="C77">
-        <v>39.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>207.94994499999999</v>
+      </c>
+      <c r="D77">
+        <v>15.996585356530824</v>
+      </c>
+      <c r="E77">
+        <v>70.819999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>4244.7164909459525</v>
+        <v>36.097099621689786</v>
       </c>
       <c r="B78">
-        <v>42.16</v>
+        <v>327.73050000000001</v>
       </c>
       <c r="C78">
-        <v>48.25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203.2590415</v>
+      </c>
+      <c r="D78">
+        <v>14.611332920954471</v>
+      </c>
+      <c r="E78">
+        <v>75.72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1339.2814157367934</v>
+        <v>30.030909386692695</v>
       </c>
       <c r="B79">
-        <v>23.63</v>
+        <v>257.91840000000002</v>
       </c>
       <c r="C79">
-        <v>58.79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202.76100766666664</v>
+      </c>
+      <c r="D79">
+        <v>11.789920512713804</v>
+      </c>
+      <c r="E79">
+        <v>82.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1925.5278636640774</v>
+        <v>28.636190314790493</v>
       </c>
       <c r="B80">
-        <v>29.11</v>
+        <v>309.46409999999997</v>
       </c>
       <c r="C80">
-        <v>57.99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198.89338733333329</v>
+      </c>
+      <c r="D80">
+        <v>13.86773520679349</v>
+      </c>
+      <c r="E80">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>3087.827556820579</v>
+        <v>37.000322372662794</v>
       </c>
       <c r="B81">
-        <v>41.3</v>
+        <v>298.65899999999999</v>
       </c>
       <c r="C81">
-        <v>32.78</v>
+        <v>195.55840000000001</v>
+      </c>
+      <c r="D81">
+        <v>12.14996548066075</v>
+      </c>
+      <c r="E81">
+        <v>52.77</v>
       </c>
     </row>
   </sheetData>
